--- a/Projects/CCBR_PROD/Data/Femsa template 2019 - KENGINE_DCH_v7.0.xlsx
+++ b/Projects/CCBR_PROD/Data/Femsa template 2019 - KENGINE_DCH_v7.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -2885,7 +2885,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="109">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3048,6 +3048,38 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3381,8 +3413,8 @@
   </sheetPr>
   <dimension ref="1:244"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A116" activeCellId="1" sqref="30:30 A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7668,10 +7700,10 @@
   </sheetPr>
   <dimension ref="1:94"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
+      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="30:30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9942,99 +9974,99 @@
       </c>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="30" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38" t="s">
+    <row r="29" s="47" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="43" t="s">
         <v>592</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45" t="s">
         <v>593</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="23" t="s">
+      <c r="K29" s="45"/>
+      <c r="L29" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="24" t="s">
+      <c r="M29" s="42"/>
+      <c r="N29" s="44" t="s">
         <v>547</v>
       </c>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="24" t="s">
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="R29" s="39" t="n">
+      <c r="R29" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="S29" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="T29" s="24" t="s">
+      <c r="S29" s="44" t="s">
+        <v>571</v>
+      </c>
+      <c r="T29" s="44" t="s">
         <v>594</v>
       </c>
-      <c r="U29" s="23" t="s">
+      <c r="U29" s="42" t="s">
         <v>595</v>
       </c>
-      <c r="AMJ29" s="0"/>
-    </row>
-    <row r="30" s="29" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
+      <c r="AMJ29" s="48"/>
+    </row>
+    <row r="30" s="47" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="43" t="s">
         <v>592</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25" t="s">
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="23" t="s">
+      <c r="K30" s="45"/>
+      <c r="L30" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="24" t="s">
+      <c r="M30" s="42"/>
+      <c r="N30" s="44" t="s">
         <v>547</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="24" t="s">
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="R30" s="39" t="n">
+      <c r="R30" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="S30" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="T30" s="24" t="s">
+      <c r="S30" s="44" t="s">
+        <v>571</v>
+      </c>
+      <c r="T30" s="44" t="s">
         <v>594</v>
       </c>
-      <c r="U30" s="23" t="s">
+      <c r="U30" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="AMJ30" s="0"/>
-    </row>
-    <row r="31" s="44" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ30" s="48"/>
+    </row>
+    <row r="31" s="52" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="s">
         <v>291</v>
       </c>
@@ -10042,7 +10074,7 @@
         <v>520</v>
       </c>
       <c r="C31" s="35"/>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="49" t="s">
         <v>598</v>
       </c>
       <c r="E31" s="25"/>
@@ -10072,7 +10104,7 @@
       <c r="Q31" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="R31" s="42" t="n">
+      <c r="R31" s="50" t="n">
         <v>40</v>
       </c>
       <c r="S31" s="25" t="s">
@@ -10081,7 +10113,7 @@
       <c r="T31" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="U31" s="43" t="s">
+      <c r="U31" s="51" t="s">
         <v>600</v>
       </c>
       <c r="AMJ31" s="0"/>
@@ -10133,7 +10165,7 @@
       <c r="AMJ32" s="0"/>
     </row>
     <row r="33" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="53" t="s">
         <v>385</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -10150,11 +10182,11 @@
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
-      <c r="L33" s="46" t="s">
+      <c r="L33" s="54" t="s">
         <v>584</v>
       </c>
       <c r="M33" s="25"/>
-      <c r="N33" s="46" t="s">
+      <c r="N33" s="54" t="s">
         <v>547</v>
       </c>
       <c r="O33" s="25"/>
@@ -10177,7 +10209,7 @@
       <c r="AMJ33" s="0"/>
     </row>
     <row r="34" s="29" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="55" t="s">
         <v>319</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -10198,7 +10230,7 @@
         <v>527</v>
       </c>
       <c r="M34" s="25"/>
-      <c r="N34" s="46" t="s">
+      <c r="N34" s="54" t="s">
         <v>547</v>
       </c>
       <c r="O34" s="25"/>
@@ -10221,7 +10253,7 @@
       <c r="AMJ34" s="0"/>
     </row>
     <row r="35" s="30" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="55" t="s">
         <v>321</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -10242,7 +10274,7 @@
         <v>527</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="46" t="s">
+      <c r="N35" s="54" t="s">
         <v>547</v>
       </c>
       <c r="O35" s="25"/>
@@ -10265,7 +10297,7 @@
       <c r="AMJ35" s="0"/>
     </row>
     <row r="36" s="29" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="55" t="s">
         <v>323</v>
       </c>
       <c r="B36" s="25" t="s">
@@ -10286,7 +10318,7 @@
         <v>527</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="46" t="s">
+      <c r="N36" s="54" t="s">
         <v>547</v>
       </c>
       <c r="O36" s="25"/>
@@ -10309,7 +10341,7 @@
       <c r="AMJ36" s="0"/>
     </row>
     <row r="37" s="30" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="55" t="s">
         <v>325</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -10330,7 +10362,7 @@
         <v>527</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="46" t="s">
+      <c r="N37" s="54" t="s">
         <v>547</v>
       </c>
       <c r="O37" s="25"/>
@@ -10353,7 +10385,7 @@
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" s="29" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="55" t="s">
         <v>327</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -10374,7 +10406,7 @@
         <v>527</v>
       </c>
       <c r="M38" s="25"/>
-      <c r="N38" s="46" t="s">
+      <c r="N38" s="54" t="s">
         <v>547</v>
       </c>
       <c r="O38" s="25"/>
@@ -10397,7 +10429,7 @@
       <c r="AMJ38" s="0"/>
     </row>
     <row r="39" s="30" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="55" t="s">
         <v>329</v>
       </c>
       <c r="B39" s="25" t="s">
@@ -10418,7 +10450,7 @@
         <v>527</v>
       </c>
       <c r="M39" s="25"/>
-      <c r="N39" s="46" t="s">
+      <c r="N39" s="54" t="s">
         <v>547</v>
       </c>
       <c r="O39" s="25"/>
@@ -10441,7 +10473,7 @@
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" s="29" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="55" t="s">
         <v>331</v>
       </c>
       <c r="B40" s="25" t="s">
@@ -10462,7 +10494,7 @@
         <v>527</v>
       </c>
       <c r="M40" s="25"/>
-      <c r="N40" s="46" t="s">
+      <c r="N40" s="54" t="s">
         <v>547</v>
       </c>
       <c r="O40" s="25"/>
@@ -10485,7 +10517,7 @@
       <c r="AMJ40" s="0"/>
     </row>
     <row r="41" s="30" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="55" t="s">
         <v>333</v>
       </c>
       <c r="B41" s="25" t="s">
@@ -10506,7 +10538,7 @@
         <v>527</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="46" t="s">
+      <c r="N41" s="54" t="s">
         <v>547</v>
       </c>
       <c r="O41" s="25"/>
@@ -10529,7 +10561,7 @@
       <c r="AMJ41" s="0"/>
     </row>
     <row r="42" s="29" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="55" t="s">
         <v>335</v>
       </c>
       <c r="B42" s="25" t="s">
@@ -10550,7 +10582,7 @@
         <v>527</v>
       </c>
       <c r="M42" s="25"/>
-      <c r="N42" s="46" t="s">
+      <c r="N42" s="54" t="s">
         <v>547</v>
       </c>
       <c r="O42" s="25"/>
@@ -10617,7 +10649,7 @@
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" s="33" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="55" t="s">
         <v>361</v>
       </c>
       <c r="B44" s="37" t="s">
@@ -10626,17 +10658,17 @@
       <c r="C44" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="D44" s="48"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="48"/>
+      <c r="J44" s="56"/>
       <c r="K44" s="25"/>
-      <c r="L44" s="48"/>
+      <c r="L44" s="56"/>
       <c r="M44" s="25"/>
-      <c r="N44" s="46" t="s">
+      <c r="N44" s="54" t="s">
         <v>547</v>
       </c>
       <c r="O44" s="25"/>
@@ -10644,7 +10676,7 @@
       <c r="Q44" s="35" t="s">
         <v>541</v>
       </c>
-      <c r="R44" s="42" t="n">
+      <c r="R44" s="50" t="n">
         <v>1</v>
       </c>
       <c r="S44" s="35" t="s">
@@ -11706,7 +11738,7 @@
       <c r="AMI45" s="0"/>
     </row>
     <row r="46" s="36" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="55" t="s">
         <v>365</v>
       </c>
       <c r="B46" s="25" t="s">
@@ -11750,7 +11782,7 @@
       <c r="AMJ46" s="0"/>
     </row>
     <row r="47" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="55" t="s">
         <v>367</v>
       </c>
       <c r="B47" s="25" t="s">
@@ -11803,7 +11835,7 @@
         <v>520</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="54" t="s">
         <v>620</v>
       </c>
       <c r="E48" s="25"/>
@@ -11853,7 +11885,7 @@
         <v>520</v>
       </c>
       <c r="C49" s="24"/>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="54" t="s">
         <v>623</v>
       </c>
       <c r="E49" s="25"/>
@@ -11903,7 +11935,7 @@
         <v>520</v>
       </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="57" t="s">
         <v>624</v>
       </c>
       <c r="E50" s="25"/>
@@ -11953,7 +11985,7 @@
         <v>520</v>
       </c>
       <c r="C51" s="24"/>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="54" t="s">
         <v>620</v>
       </c>
       <c r="E51" s="25"/>
@@ -11977,7 +12009,7 @@
         <v>547</v>
       </c>
       <c r="O51" s="25"/>
-      <c r="P51" s="46" t="s">
+      <c r="P51" s="54" t="s">
         <v>626</v>
       </c>
       <c r="Q51" s="24" t="s">
@@ -12005,7 +12037,7 @@
         <v>520</v>
       </c>
       <c r="C52" s="24"/>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="54" t="s">
         <v>623</v>
       </c>
       <c r="E52" s="25"/>
@@ -12029,7 +12061,7 @@
         <v>547</v>
       </c>
       <c r="O52" s="25"/>
-      <c r="P52" s="46" t="s">
+      <c r="P52" s="54" t="s">
         <v>626</v>
       </c>
       <c r="Q52" s="24" t="s">
@@ -12057,7 +12089,7 @@
         <v>520</v>
       </c>
       <c r="C53" s="24"/>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="57" t="s">
         <v>624</v>
       </c>
       <c r="E53" s="25"/>
@@ -12081,7 +12113,7 @@
         <v>547</v>
       </c>
       <c r="O53" s="25"/>
-      <c r="P53" s="46" t="s">
+      <c r="P53" s="54" t="s">
         <v>626</v>
       </c>
       <c r="Q53" s="24" t="s">
@@ -12147,8 +12179,8 @@
       </c>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" s="50" customFormat="true" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="47" t="s">
+    <row r="55" s="58" customFormat="true" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="55" t="s">
         <v>387</v>
       </c>
       <c r="B55" s="25" t="s">
@@ -12179,7 +12211,7 @@
         <v>547</v>
       </c>
       <c r="O55" s="25"/>
-      <c r="P55" s="46" t="s">
+      <c r="P55" s="54" t="s">
         <v>626</v>
       </c>
       <c r="Q55" s="25" t="s">
@@ -12199,8 +12231,8 @@
       </c>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" s="44" customFormat="true" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="47" t="s">
+    <row r="56" s="52" customFormat="true" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="55" t="s">
         <v>389</v>
       </c>
       <c r="B56" s="25" t="s">
@@ -12231,7 +12263,7 @@
         <v>547</v>
       </c>
       <c r="O56" s="25"/>
-      <c r="P56" s="46" t="s">
+      <c r="P56" s="54" t="s">
         <v>626</v>
       </c>
       <c r="Q56" s="25" t="s">
@@ -12252,7 +12284,7 @@
       <c r="AMJ56" s="0"/>
     </row>
     <row r="57" s="28" customFormat="true" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="55" t="s">
         <v>391</v>
       </c>
       <c r="B57" s="25" t="s">
@@ -12283,7 +12315,7 @@
         <v>547</v>
       </c>
       <c r="O57" s="25"/>
-      <c r="P57" s="46" t="s">
+      <c r="P57" s="54" t="s">
         <v>626</v>
       </c>
       <c r="Q57" s="25" t="s">
@@ -12303,7 +12335,7 @@
       </c>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="25" t="s">
         <v>393</v>
       </c>
@@ -12407,7 +12439,7 @@
       </c>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="s">
         <v>397</v>
       </c>
@@ -12459,47 +12491,47 @@
       </c>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="47" t="s">
+    <row r="61" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="54" t="s">
         <v>532</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="46" t="s">
+      <c r="C61" s="59"/>
+      <c r="D61" s="54" t="s">
         <v>536</v>
       </c>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="46" t="s">
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="R61" s="42" t="n">
+      <c r="R61" s="50" t="n">
         <v>1</v>
       </c>
       <c r="S61" s="35" t="s">
         <v>523</v>
       </c>
-      <c r="T61" s="46" t="s">
+      <c r="T61" s="54" t="s">
         <v>581</v>
       </c>
-      <c r="U61" s="46" t="s">
+      <c r="U61" s="54" t="s">
         <v>635</v>
       </c>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="25" t="s">
         <v>401</v>
       </c>
@@ -13602,82 +13634,82 @@
       <c r="AMH63" s="0"/>
       <c r="AMI63" s="0"/>
     </row>
-    <row r="64" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="47" t="s">
+    <row r="64" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="55" t="s">
         <v>405</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="54" t="s">
         <v>532</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="46" t="s">
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="60"/>
+      <c r="O64" s="60"/>
+      <c r="P64" s="60"/>
+      <c r="Q64" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="R64" s="42" t="n">
+      <c r="R64" s="50" t="n">
         <v>1</v>
       </c>
       <c r="S64" s="35" t="s">
         <v>523</v>
       </c>
-      <c r="T64" s="46" t="s">
+      <c r="T64" s="54" t="s">
         <v>637</v>
       </c>
-      <c r="U64" s="46" t="s">
+      <c r="U64" s="54" t="s">
         <v>638</v>
       </c>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="47" t="s">
+    <row r="65" s="62" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="55" t="s">
         <v>407</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="54" t="s">
         <v>532</v>
       </c>
       <c r="C65" s="35"/>
-      <c r="D65" s="46" t="s">
+      <c r="D65" s="54" t="s">
         <v>639</v>
       </c>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="46" t="s">
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="60"/>
+      <c r="O65" s="60"/>
+      <c r="P65" s="60"/>
+      <c r="Q65" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="R65" s="42" t="n">
+      <c r="R65" s="50" t="n">
         <v>1</v>
       </c>
       <c r="S65" s="35" t="s">
         <v>523</v>
       </c>
-      <c r="T65" s="46" t="s">
+      <c r="T65" s="54" t="s">
         <v>581</v>
       </c>
-      <c r="U65" s="46" t="s">
+      <c r="U65" s="54" t="s">
         <v>640</v>
       </c>
       <c r="AMJ65" s="0"/>
@@ -13695,14 +13727,14 @@
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
       <c r="K66" s="25"/>
-      <c r="L66" s="55"/>
+      <c r="L66" s="63"/>
       <c r="M66" s="25"/>
-      <c r="N66" s="55"/>
+      <c r="N66" s="63"/>
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
       <c r="Q66" s="25" t="s">
@@ -13722,7 +13754,7 @@
       </c>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="25" t="s">
         <v>413</v>
       </c>
@@ -13735,14 +13767,14 @@
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
       <c r="K67" s="25"/>
-      <c r="L67" s="55"/>
+      <c r="L67" s="63"/>
       <c r="M67" s="25"/>
-      <c r="N67" s="55"/>
+      <c r="N67" s="63"/>
       <c r="O67" s="25"/>
       <c r="P67" s="25"/>
       <c r="Q67" s="25" t="s">
@@ -13775,14 +13807,14 @@
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
       <c r="K68" s="25"/>
-      <c r="L68" s="55"/>
+      <c r="L68" s="63"/>
       <c r="M68" s="25"/>
-      <c r="N68" s="55"/>
+      <c r="N68" s="63"/>
       <c r="O68" s="25"/>
       <c r="P68" s="25"/>
       <c r="Q68" s="25" t="s">
@@ -13802,7 +13834,7 @@
       </c>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="25" t="s">
         <v>417</v>
       </c>
@@ -13815,14 +13847,14 @@
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
       <c r="K69" s="25"/>
-      <c r="L69" s="55"/>
+      <c r="L69" s="63"/>
       <c r="M69" s="25"/>
-      <c r="N69" s="55"/>
+      <c r="N69" s="63"/>
       <c r="O69" s="25"/>
       <c r="P69" s="25"/>
       <c r="Q69" s="25" t="s">
@@ -13855,14 +13887,14 @@
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
       <c r="K70" s="25"/>
-      <c r="L70" s="55"/>
+      <c r="L70" s="63"/>
       <c r="M70" s="25"/>
-      <c r="N70" s="55"/>
+      <c r="N70" s="63"/>
       <c r="O70" s="25"/>
       <c r="P70" s="25"/>
       <c r="Q70" s="25" t="s">
@@ -13882,7 +13914,7 @@
       </c>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="71" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="25" t="s">
         <v>421</v>
       </c>
@@ -13895,14 +13927,14 @@
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="55"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="63"/>
       <c r="K71" s="25"/>
-      <c r="L71" s="55"/>
+      <c r="L71" s="63"/>
       <c r="M71" s="25"/>
-      <c r="N71" s="55"/>
+      <c r="N71" s="63"/>
       <c r="O71" s="25"/>
       <c r="P71" s="25"/>
       <c r="Q71" s="25" t="s">
@@ -13935,14 +13967,14 @@
       </c>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="55"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
       <c r="K72" s="25"/>
-      <c r="L72" s="55"/>
+      <c r="L72" s="63"/>
       <c r="M72" s="25"/>
-      <c r="N72" s="55"/>
+      <c r="N72" s="63"/>
       <c r="O72" s="25"/>
       <c r="P72" s="25"/>
       <c r="Q72" s="25" t="s">
@@ -13962,7 +13994,7 @@
       </c>
       <c r="AMJ72" s="0"/>
     </row>
-    <row r="73" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="25" t="s">
         <v>425</v>
       </c>
@@ -13975,14 +14007,14 @@
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
       <c r="K73" s="25"/>
-      <c r="L73" s="55"/>
+      <c r="L73" s="63"/>
       <c r="M73" s="25"/>
-      <c r="N73" s="55"/>
+      <c r="N73" s="63"/>
       <c r="O73" s="25"/>
       <c r="P73" s="25"/>
       <c r="Q73" s="25" t="s">
@@ -14015,14 +14047,14 @@
       </c>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
       <c r="K74" s="25"/>
-      <c r="L74" s="55"/>
+      <c r="L74" s="63"/>
       <c r="M74" s="25"/>
-      <c r="N74" s="55"/>
+      <c r="N74" s="63"/>
       <c r="O74" s="25"/>
       <c r="P74" s="25"/>
       <c r="Q74" s="25" t="s">
@@ -14042,7 +14074,7 @@
       </c>
       <c r="AMJ74" s="0"/>
     </row>
-    <row r="75" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="25" t="s">
         <v>429</v>
       </c>
@@ -14055,14 +14087,14 @@
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
       <c r="K75" s="25"/>
-      <c r="L75" s="55"/>
+      <c r="L75" s="63"/>
       <c r="M75" s="25"/>
-      <c r="N75" s="55"/>
+      <c r="N75" s="63"/>
       <c r="O75" s="25"/>
       <c r="P75" s="25"/>
       <c r="Q75" s="25" t="s">
@@ -14095,14 +14127,14 @@
       </c>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
       <c r="K76" s="25"/>
-      <c r="L76" s="55"/>
+      <c r="L76" s="63"/>
       <c r="M76" s="25"/>
-      <c r="N76" s="55"/>
+      <c r="N76" s="63"/>
       <c r="O76" s="25"/>
       <c r="P76" s="25"/>
       <c r="Q76" s="25" t="s">
@@ -14122,7 +14154,7 @@
       </c>
       <c r="AMJ76" s="0"/>
     </row>
-    <row r="77" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="25" t="s">
         <v>433</v>
       </c>
@@ -14135,14 +14167,14 @@
       </c>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="55"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
       <c r="K77" s="25"/>
-      <c r="L77" s="55"/>
+      <c r="L77" s="63"/>
       <c r="M77" s="25"/>
-      <c r="N77" s="55"/>
+      <c r="N77" s="63"/>
       <c r="O77" s="25"/>
       <c r="P77" s="25"/>
       <c r="Q77" s="25" t="s">
@@ -14175,14 +14207,14 @@
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
       <c r="K78" s="25"/>
-      <c r="L78" s="55"/>
+      <c r="L78" s="63"/>
       <c r="M78" s="25"/>
-      <c r="N78" s="55"/>
+      <c r="N78" s="63"/>
       <c r="O78" s="25"/>
       <c r="P78" s="25"/>
       <c r="Q78" s="25" t="s">
@@ -14202,7 +14234,7 @@
       </c>
       <c r="AMJ78" s="0"/>
     </row>
-    <row r="79" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="25" t="s">
         <v>437</v>
       </c>
@@ -14215,14 +14247,14 @@
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
       <c r="K79" s="25"/>
-      <c r="L79" s="55"/>
+      <c r="L79" s="63"/>
       <c r="M79" s="25"/>
-      <c r="N79" s="55"/>
+      <c r="N79" s="63"/>
       <c r="O79" s="25"/>
       <c r="P79" s="25"/>
       <c r="Q79" s="25" t="s">
@@ -14255,14 +14287,14 @@
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
       <c r="K80" s="25"/>
-      <c r="L80" s="55"/>
+      <c r="L80" s="63"/>
       <c r="M80" s="25"/>
-      <c r="N80" s="55"/>
+      <c r="N80" s="63"/>
       <c r="O80" s="25"/>
       <c r="P80" s="25"/>
       <c r="Q80" s="25" t="s">
@@ -14282,7 +14314,7 @@
       </c>
       <c r="AMJ80" s="0"/>
     </row>
-    <row r="81" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="25" t="s">
         <v>441</v>
       </c>
@@ -14295,14 +14327,14 @@
       </c>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
       <c r="K81" s="25"/>
-      <c r="L81" s="55"/>
+      <c r="L81" s="63"/>
       <c r="M81" s="25"/>
-      <c r="N81" s="55"/>
+      <c r="N81" s="63"/>
       <c r="O81" s="25"/>
       <c r="P81" s="25"/>
       <c r="Q81" s="25" t="s">
@@ -14335,14 +14367,14 @@
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="63"/>
       <c r="K82" s="25"/>
-      <c r="L82" s="55"/>
+      <c r="L82" s="63"/>
       <c r="M82" s="25"/>
-      <c r="N82" s="55"/>
+      <c r="N82" s="63"/>
       <c r="O82" s="25"/>
       <c r="P82" s="25"/>
       <c r="Q82" s="25" t="s">
@@ -14362,7 +14394,7 @@
       </c>
       <c r="AMJ82" s="0"/>
     </row>
-    <row r="83" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="25" t="s">
         <v>445</v>
       </c>
@@ -14375,14 +14407,14 @@
       </c>
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
       <c r="K83" s="25"/>
-      <c r="L83" s="55"/>
+      <c r="L83" s="63"/>
       <c r="M83" s="25"/>
-      <c r="N83" s="55"/>
+      <c r="N83" s="63"/>
       <c r="O83" s="25"/>
       <c r="P83" s="25"/>
       <c r="Q83" s="25" t="s">
@@ -14415,14 +14447,14 @@
       </c>
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="63"/>
       <c r="K84" s="25"/>
-      <c r="L84" s="55"/>
+      <c r="L84" s="63"/>
       <c r="M84" s="25"/>
-      <c r="N84" s="55"/>
+      <c r="N84" s="63"/>
       <c r="O84" s="25"/>
       <c r="P84" s="25"/>
       <c r="Q84" s="25" t="s">
@@ -14442,7 +14474,7 @@
       </c>
       <c r="AMJ84" s="0"/>
     </row>
-    <row r="85" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="25" t="s">
         <v>449</v>
       </c>
@@ -14455,14 +14487,14 @@
       </c>
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="63"/>
       <c r="K85" s="25"/>
-      <c r="L85" s="55"/>
+      <c r="L85" s="63"/>
       <c r="M85" s="25"/>
-      <c r="N85" s="55"/>
+      <c r="N85" s="63"/>
       <c r="O85" s="25"/>
       <c r="P85" s="25"/>
       <c r="Q85" s="25" t="s">
@@ -14495,14 +14527,14 @@
       </c>
       <c r="E86" s="25"/>
       <c r="F86" s="25"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
       <c r="K86" s="25"/>
-      <c r="L86" s="55"/>
+      <c r="L86" s="63"/>
       <c r="M86" s="25"/>
-      <c r="N86" s="55"/>
+      <c r="N86" s="63"/>
       <c r="O86" s="25"/>
       <c r="P86" s="25"/>
       <c r="Q86" s="25" t="s">
@@ -14522,7 +14554,7 @@
       </c>
       <c r="AMJ86" s="0"/>
     </row>
-    <row r="87" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="25" t="s">
         <v>453</v>
       </c>
@@ -14535,14 +14567,14 @@
       </c>
       <c r="E87" s="25"/>
       <c r="F87" s="25"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="55"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
       <c r="K87" s="25"/>
-      <c r="L87" s="55"/>
+      <c r="L87" s="63"/>
       <c r="M87" s="25"/>
-      <c r="N87" s="55"/>
+      <c r="N87" s="63"/>
       <c r="O87" s="25"/>
       <c r="P87" s="25"/>
       <c r="Q87" s="25" t="s">
@@ -14575,14 +14607,14 @@
       </c>
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="55"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="63"/>
       <c r="K88" s="25"/>
-      <c r="L88" s="55"/>
+      <c r="L88" s="63"/>
       <c r="M88" s="25"/>
-      <c r="N88" s="55"/>
+      <c r="N88" s="63"/>
       <c r="O88" s="25"/>
       <c r="P88" s="25"/>
       <c r="Q88" s="25" t="s">
@@ -14603,7 +14635,7 @@
       <c r="AMJ88" s="0"/>
     </row>
     <row r="89" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="55" t="s">
         <v>457</v>
       </c>
       <c r="B89" s="25" t="s">
@@ -14648,8 +14680,8 @@
       </c>
       <c r="AMJ89" s="0"/>
     </row>
-    <row r="90" s="56" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="47" t="s">
+    <row r="90" s="64" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="55" t="s">
         <v>459</v>
       </c>
       <c r="B90" s="25" t="s">
@@ -14700,8 +14732,8 @@
       </c>
       <c r="AMJ90" s="0"/>
     </row>
-    <row r="91" s="58" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="47" t="s">
+    <row r="91" s="66" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="55" t="s">
         <v>489</v>
       </c>
       <c r="B91" s="25" t="s">
@@ -14710,339 +14742,339 @@
       <c r="C91" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="D91" s="52"/>
-      <c r="E91" s="52"/>
-      <c r="F91" s="46" t="s">
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="52"/>
-      <c r="K91" s="52"/>
-      <c r="L91" s="46" t="s">
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="54" t="s">
         <v>527</v>
       </c>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46" t="s">
+      <c r="M91" s="54"/>
+      <c r="N91" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
-      <c r="Q91" s="46" t="s">
+      <c r="O91" s="54"/>
+      <c r="P91" s="54"/>
+      <c r="Q91" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="R91" s="42" t="n">
+      <c r="R91" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="S91" s="46" t="s">
+      <c r="S91" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="T91" s="46" t="s">
+      <c r="T91" s="54" t="s">
         <v>529</v>
       </c>
-      <c r="U91" s="46" t="s">
+      <c r="U91" s="54" t="s">
         <v>646</v>
       </c>
-      <c r="V91" s="57"/>
-      <c r="W91" s="57"/>
-      <c r="X91" s="57"/>
-      <c r="Y91" s="57"/>
-      <c r="Z91" s="57"/>
-      <c r="AA91" s="57"/>
-      <c r="AB91" s="57"/>
-      <c r="AC91" s="57"/>
-      <c r="AD91" s="57"/>
-      <c r="AE91" s="57"/>
-      <c r="AF91" s="57"/>
-      <c r="AG91" s="57"/>
-      <c r="AH91" s="57"/>
-      <c r="AI91" s="57"/>
-      <c r="AJ91" s="57"/>
-      <c r="AK91" s="57"/>
-      <c r="AL91" s="57"/>
-      <c r="AM91" s="57"/>
-      <c r="AN91" s="57"/>
-      <c r="AO91" s="57"/>
-      <c r="AP91" s="57"/>
-      <c r="AQ91" s="57"/>
-      <c r="AR91" s="57"/>
-      <c r="AS91" s="57"/>
-      <c r="AT91" s="57"/>
-      <c r="AU91" s="57"/>
-      <c r="AV91" s="57"/>
-      <c r="AW91" s="57"/>
-      <c r="AX91" s="57"/>
-      <c r="AY91" s="57"/>
-      <c r="AZ91" s="57"/>
-      <c r="BA91" s="57"/>
-      <c r="BB91" s="57"/>
-      <c r="BC91" s="57"/>
-      <c r="BD91" s="57"/>
-      <c r="BE91" s="57"/>
-      <c r="BF91" s="57"/>
-      <c r="BG91" s="57"/>
-      <c r="BH91" s="57"/>
-      <c r="BI91" s="57"/>
-      <c r="BJ91" s="57"/>
+      <c r="V91" s="65"/>
+      <c r="W91" s="65"/>
+      <c r="X91" s="65"/>
+      <c r="Y91" s="65"/>
+      <c r="Z91" s="65"/>
+      <c r="AA91" s="65"/>
+      <c r="AB91" s="65"/>
+      <c r="AC91" s="65"/>
+      <c r="AD91" s="65"/>
+      <c r="AE91" s="65"/>
+      <c r="AF91" s="65"/>
+      <c r="AG91" s="65"/>
+      <c r="AH91" s="65"/>
+      <c r="AI91" s="65"/>
+      <c r="AJ91" s="65"/>
+      <c r="AK91" s="65"/>
+      <c r="AL91" s="65"/>
+      <c r="AM91" s="65"/>
+      <c r="AN91" s="65"/>
+      <c r="AO91" s="65"/>
+      <c r="AP91" s="65"/>
+      <c r="AQ91" s="65"/>
+      <c r="AR91" s="65"/>
+      <c r="AS91" s="65"/>
+      <c r="AT91" s="65"/>
+      <c r="AU91" s="65"/>
+      <c r="AV91" s="65"/>
+      <c r="AW91" s="65"/>
+      <c r="AX91" s="65"/>
+      <c r="AY91" s="65"/>
+      <c r="AZ91" s="65"/>
+      <c r="BA91" s="65"/>
+      <c r="BB91" s="65"/>
+      <c r="BC91" s="65"/>
+      <c r="BD91" s="65"/>
+      <c r="BE91" s="65"/>
+      <c r="BF91" s="65"/>
+      <c r="BG91" s="65"/>
+      <c r="BH91" s="65"/>
+      <c r="BI91" s="65"/>
+      <c r="BJ91" s="65"/>
       <c r="AMJ91" s="0"/>
     </row>
-    <row r="92" s="66" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="59" t="s">
+    <row r="92" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="67" t="s">
         <v>491</v>
       </c>
-      <c r="B92" s="60" t="s">
+      <c r="B92" s="68" t="s">
         <v>520</v>
       </c>
-      <c r="C92" s="61" t="s">
+      <c r="C92" s="69" t="s">
         <v>549</v>
       </c>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="63" t="s">
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="71" t="s">
         <v>588</v>
       </c>
-      <c r="G92" s="62"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="62"/>
-      <c r="K92" s="62"/>
-      <c r="L92" s="63" t="s">
+      <c r="G92" s="70"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="70"/>
+      <c r="J92" s="70"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="71" t="s">
         <v>553</v>
       </c>
-      <c r="M92" s="63"/>
-      <c r="N92" s="63" t="s">
+      <c r="M92" s="71"/>
+      <c r="N92" s="71" t="s">
         <v>547</v>
       </c>
-      <c r="O92" s="63"/>
-      <c r="P92" s="63"/>
-      <c r="Q92" s="63" t="s">
+      <c r="O92" s="71"/>
+      <c r="P92" s="71"/>
+      <c r="Q92" s="71" t="s">
         <v>541</v>
       </c>
-      <c r="R92" s="64" t="n">
+      <c r="R92" s="72" t="n">
         <v>4</v>
       </c>
-      <c r="S92" s="63" t="s">
+      <c r="S92" s="71" t="s">
         <v>523</v>
       </c>
-      <c r="T92" s="63" t="s">
+      <c r="T92" s="71" t="s">
         <v>529</v>
       </c>
-      <c r="U92" s="63" t="s">
+      <c r="U92" s="71" t="s">
         <v>647</v>
       </c>
-      <c r="V92" s="65"/>
-      <c r="W92" s="65"/>
-      <c r="X92" s="65"/>
-      <c r="Y92" s="65"/>
-      <c r="Z92" s="65"/>
-      <c r="AA92" s="65"/>
-      <c r="AB92" s="65"/>
-      <c r="AC92" s="65"/>
-      <c r="AD92" s="65"/>
-      <c r="AE92" s="65"/>
-      <c r="AF92" s="65"/>
-      <c r="AG92" s="65"/>
-      <c r="AH92" s="65"/>
-      <c r="AI92" s="65"/>
-      <c r="AJ92" s="65"/>
-      <c r="AK92" s="65"/>
-      <c r="AL92" s="65"/>
-      <c r="AM92" s="65"/>
-      <c r="AN92" s="65"/>
-      <c r="AO92" s="65"/>
-      <c r="AP92" s="65"/>
-      <c r="AQ92" s="65"/>
-      <c r="AR92" s="65"/>
-      <c r="AS92" s="65"/>
-      <c r="AT92" s="65"/>
-      <c r="AU92" s="65"/>
-      <c r="AV92" s="65"/>
-      <c r="AW92" s="65"/>
-      <c r="AX92" s="65"/>
-      <c r="AY92" s="65"/>
-      <c r="AZ92" s="65"/>
-      <c r="BA92" s="65"/>
-      <c r="BB92" s="65"/>
-      <c r="BC92" s="65"/>
-      <c r="BD92" s="65"/>
-      <c r="BE92" s="65"/>
-      <c r="BF92" s="65"/>
-      <c r="BG92" s="65"/>
-      <c r="BH92" s="65"/>
-      <c r="BI92" s="65"/>
-      <c r="BJ92" s="65"/>
+      <c r="V92" s="73"/>
+      <c r="W92" s="73"/>
+      <c r="X92" s="73"/>
+      <c r="Y92" s="73"/>
+      <c r="Z92" s="73"/>
+      <c r="AA92" s="73"/>
+      <c r="AB92" s="73"/>
+      <c r="AC92" s="73"/>
+      <c r="AD92" s="73"/>
+      <c r="AE92" s="73"/>
+      <c r="AF92" s="73"/>
+      <c r="AG92" s="73"/>
+      <c r="AH92" s="73"/>
+      <c r="AI92" s="73"/>
+      <c r="AJ92" s="73"/>
+      <c r="AK92" s="73"/>
+      <c r="AL92" s="73"/>
+      <c r="AM92" s="73"/>
+      <c r="AN92" s="73"/>
+      <c r="AO92" s="73"/>
+      <c r="AP92" s="73"/>
+      <c r="AQ92" s="73"/>
+      <c r="AR92" s="73"/>
+      <c r="AS92" s="73"/>
+      <c r="AT92" s="73"/>
+      <c r="AU92" s="73"/>
+      <c r="AV92" s="73"/>
+      <c r="AW92" s="73"/>
+      <c r="AX92" s="73"/>
+      <c r="AY92" s="73"/>
+      <c r="AZ92" s="73"/>
+      <c r="BA92" s="73"/>
+      <c r="BB92" s="73"/>
+      <c r="BC92" s="73"/>
+      <c r="BD92" s="73"/>
+      <c r="BE92" s="73"/>
+      <c r="BF92" s="73"/>
+      <c r="BG92" s="73"/>
+      <c r="BH92" s="73"/>
+      <c r="BI92" s="73"/>
+      <c r="BJ92" s="73"/>
       <c r="AMJ92" s="0"/>
     </row>
-    <row r="93" s="68" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="67" t="s">
+    <row r="93" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="54" t="s">
         <v>532</v>
       </c>
       <c r="C93" s="35"/>
-      <c r="D93" s="46" t="s">
+      <c r="D93" s="54" t="s">
         <v>648</v>
       </c>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="46"/>
-      <c r="K93" s="46"/>
-      <c r="L93" s="46"/>
-      <c r="M93" s="46"/>
-      <c r="N93" s="46"/>
-      <c r="O93" s="46"/>
-      <c r="P93" s="46"/>
-      <c r="Q93" s="46" t="s">
+      <c r="E93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="54"/>
+      <c r="K93" s="54"/>
+      <c r="L93" s="54"/>
+      <c r="M93" s="54"/>
+      <c r="N93" s="54"/>
+      <c r="O93" s="54"/>
+      <c r="P93" s="54"/>
+      <c r="Q93" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="R93" s="42" t="n">
+      <c r="R93" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="S93" s="46" t="s">
+      <c r="S93" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="T93" s="46" t="s">
+      <c r="T93" s="54" t="s">
         <v>649</v>
       </c>
-      <c r="U93" s="46" t="s">
+      <c r="U93" s="54" t="s">
         <v>650</v>
       </c>
-      <c r="V93" s="46"/>
-      <c r="W93" s="46"/>
-      <c r="X93" s="46"/>
-      <c r="Y93" s="46"/>
-      <c r="Z93" s="46"/>
-      <c r="AA93" s="46"/>
-      <c r="AB93" s="46"/>
-      <c r="AC93" s="46"/>
-      <c r="AD93" s="46"/>
-      <c r="AE93" s="46"/>
-      <c r="AF93" s="46"/>
-      <c r="AG93" s="46"/>
-      <c r="AH93" s="46"/>
-      <c r="AI93" s="46"/>
-      <c r="AJ93" s="46"/>
-      <c r="AK93" s="46"/>
-      <c r="AL93" s="46"/>
-      <c r="AM93" s="46"/>
-      <c r="AN93" s="46"/>
-      <c r="AO93" s="46"/>
-      <c r="AP93" s="46"/>
-      <c r="AQ93" s="46"/>
-      <c r="AR93" s="46"/>
-      <c r="AS93" s="46"/>
-      <c r="AT93" s="46"/>
-      <c r="AU93" s="46"/>
-      <c r="AV93" s="46"/>
-      <c r="AW93" s="46"/>
-      <c r="AX93" s="46"/>
-      <c r="AY93" s="46"/>
-      <c r="AZ93" s="46"/>
-      <c r="BA93" s="46"/>
-      <c r="BB93" s="46"/>
-      <c r="BC93" s="46"/>
-      <c r="BD93" s="46"/>
-      <c r="BE93" s="46"/>
-      <c r="BF93" s="46"/>
-      <c r="BG93" s="46"/>
-      <c r="BH93" s="46"/>
-      <c r="BI93" s="46"/>
-      <c r="BJ93" s="46"/>
+      <c r="V93" s="54"/>
+      <c r="W93" s="54"/>
+      <c r="X93" s="54"/>
+      <c r="Y93" s="54"/>
+      <c r="Z93" s="54"/>
+      <c r="AA93" s="54"/>
+      <c r="AB93" s="54"/>
+      <c r="AC93" s="54"/>
+      <c r="AD93" s="54"/>
+      <c r="AE93" s="54"/>
+      <c r="AF93" s="54"/>
+      <c r="AG93" s="54"/>
+      <c r="AH93" s="54"/>
+      <c r="AI93" s="54"/>
+      <c r="AJ93" s="54"/>
+      <c r="AK93" s="54"/>
+      <c r="AL93" s="54"/>
+      <c r="AM93" s="54"/>
+      <c r="AN93" s="54"/>
+      <c r="AO93" s="54"/>
+      <c r="AP93" s="54"/>
+      <c r="AQ93" s="54"/>
+      <c r="AR93" s="54"/>
+      <c r="AS93" s="54"/>
+      <c r="AT93" s="54"/>
+      <c r="AU93" s="54"/>
+      <c r="AV93" s="54"/>
+      <c r="AW93" s="54"/>
+      <c r="AX93" s="54"/>
+      <c r="AY93" s="54"/>
+      <c r="AZ93" s="54"/>
+      <c r="BA93" s="54"/>
+      <c r="BB93" s="54"/>
+      <c r="BC93" s="54"/>
+      <c r="BD93" s="54"/>
+      <c r="BE93" s="54"/>
+      <c r="BF93" s="54"/>
+      <c r="BG93" s="54"/>
+      <c r="BH93" s="54"/>
+      <c r="BI93" s="54"/>
+      <c r="BJ93" s="54"/>
       <c r="AMJ93" s="0"/>
     </row>
-    <row r="94" s="70" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="67" t="s">
+    <row r="94" s="78" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="54" t="s">
         <v>520</v>
       </c>
-      <c r="C94" s="69"/>
-      <c r="D94" s="46" t="s">
+      <c r="C94" s="77"/>
+      <c r="D94" s="54" t="s">
         <v>651</v>
       </c>
-      <c r="F94" s="46" t="s">
+      <c r="F94" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="G94" s="70" t="s">
+      <c r="G94" s="78" t="s">
         <v>523</v>
       </c>
-      <c r="H94" s="46" t="n">
+      <c r="H94" s="54" t="n">
         <v>600</v>
       </c>
-      <c r="I94" s="46" t="s">
+      <c r="I94" s="54" t="s">
         <v>550</v>
       </c>
-      <c r="L94" s="46" t="s">
+      <c r="L94" s="54" t="s">
         <v>527</v>
       </c>
-      <c r="M94" s="46"/>
-      <c r="N94" s="46" t="s">
+      <c r="M94" s="54"/>
+      <c r="N94" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="O94" s="46"/>
-      <c r="P94" s="46"/>
-      <c r="Q94" s="46" t="s">
+      <c r="O94" s="54"/>
+      <c r="P94" s="54"/>
+      <c r="Q94" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="R94" s="42" t="n">
+      <c r="R94" s="50" t="n">
         <v>30</v>
       </c>
-      <c r="S94" s="46" t="s">
+      <c r="S94" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="T94" s="46" t="s">
+      <c r="T94" s="54" t="s">
         <v>603</v>
       </c>
-      <c r="U94" s="46" t="s">
+      <c r="U94" s="54" t="s">
         <v>652</v>
       </c>
-      <c r="V94" s="46"/>
-      <c r="W94" s="46"/>
-      <c r="X94" s="46"/>
-      <c r="Y94" s="46"/>
-      <c r="Z94" s="46"/>
-      <c r="AA94" s="46"/>
-      <c r="AB94" s="46"/>
-      <c r="AC94" s="46"/>
-      <c r="AD94" s="46"/>
-      <c r="AE94" s="46"/>
-      <c r="AF94" s="46"/>
-      <c r="AG94" s="46"/>
-      <c r="AH94" s="46"/>
-      <c r="AI94" s="46"/>
-      <c r="AJ94" s="46"/>
-      <c r="AK94" s="46"/>
-      <c r="AL94" s="46"/>
-      <c r="AM94" s="46"/>
-      <c r="AN94" s="46"/>
-      <c r="AO94" s="46"/>
-      <c r="AP94" s="46"/>
-      <c r="AQ94" s="46"/>
-      <c r="AR94" s="46"/>
-      <c r="AS94" s="46"/>
-      <c r="AT94" s="46"/>
-      <c r="AU94" s="46"/>
-      <c r="AV94" s="46"/>
-      <c r="AW94" s="46"/>
-      <c r="AX94" s="46"/>
-      <c r="AY94" s="46"/>
-      <c r="AZ94" s="46"/>
-      <c r="BA94" s="46"/>
-      <c r="BB94" s="46"/>
-      <c r="BC94" s="46"/>
-      <c r="BD94" s="46"/>
-      <c r="BE94" s="46"/>
-      <c r="BF94" s="46"/>
-      <c r="BG94" s="46"/>
-      <c r="BH94" s="46"/>
-      <c r="BI94" s="46"/>
-      <c r="BJ94" s="46"/>
+      <c r="V94" s="54"/>
+      <c r="W94" s="54"/>
+      <c r="X94" s="54"/>
+      <c r="Y94" s="54"/>
+      <c r="Z94" s="54"/>
+      <c r="AA94" s="54"/>
+      <c r="AB94" s="54"/>
+      <c r="AC94" s="54"/>
+      <c r="AD94" s="54"/>
+      <c r="AE94" s="54"/>
+      <c r="AF94" s="54"/>
+      <c r="AG94" s="54"/>
+      <c r="AH94" s="54"/>
+      <c r="AI94" s="54"/>
+      <c r="AJ94" s="54"/>
+      <c r="AK94" s="54"/>
+      <c r="AL94" s="54"/>
+      <c r="AM94" s="54"/>
+      <c r="AN94" s="54"/>
+      <c r="AO94" s="54"/>
+      <c r="AP94" s="54"/>
+      <c r="AQ94" s="54"/>
+      <c r="AR94" s="54"/>
+      <c r="AS94" s="54"/>
+      <c r="AT94" s="54"/>
+      <c r="AU94" s="54"/>
+      <c r="AV94" s="54"/>
+      <c r="AW94" s="54"/>
+      <c r="AX94" s="54"/>
+      <c r="AY94" s="54"/>
+      <c r="AZ94" s="54"/>
+      <c r="BA94" s="54"/>
+      <c r="BB94" s="54"/>
+      <c r="BC94" s="54"/>
+      <c r="BD94" s="54"/>
+      <c r="BE94" s="54"/>
+      <c r="BF94" s="54"/>
+      <c r="BG94" s="54"/>
+      <c r="BH94" s="54"/>
+      <c r="BI94" s="54"/>
+      <c r="BJ94" s="54"/>
       <c r="AMJ94" s="0"/>
     </row>
   </sheetData>
@@ -15066,7 +15098,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="30:30 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15098,73 +15130,73 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="79" t="s">
         <v>653</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="79" t="s">
         <v>500</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="79" t="s">
         <v>501</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="79" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="79" t="s">
         <v>503</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="80" t="s">
         <v>514</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="81" t="s">
         <v>504</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="79" t="s">
         <v>506</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="79" t="s">
         <v>507</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="79" t="s">
         <v>508</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="M1" s="83" t="s">
         <v>509</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="79" t="s">
         <v>510</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="O1" s="79" t="s">
         <v>511</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="79" t="s">
         <v>512</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="79" t="s">
         <v>513</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="79" t="s">
         <v>515</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="79" t="s">
         <v>516</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="79" t="s">
         <v>517</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="U1" s="83" t="s">
         <v>518</v>
       </c>
-      <c r="V1" s="71" t="s">
+      <c r="V1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="75" t="s">
+      <c r="W1" s="83" t="s">
         <v>519</v>
       </c>
       <c r="X1" s="0"/>
@@ -16168,149 +16200,149 @@
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
     </row>
-    <row r="2" s="83" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="76" t="s">
+    <row r="2" s="91" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="84" t="s">
         <v>654</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="85" t="s">
         <v>532</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="86" t="s">
         <v>565</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="77" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85" t="s">
         <v>540</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85" t="s">
         <v>547</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77" t="n">
+      <c r="R2" s="85"/>
+      <c r="S2" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="T2" s="77" t="s">
+      <c r="T2" s="85" t="s">
         <v>571</v>
       </c>
       <c r="U2" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="V2" s="81" t="n">
+      <c r="V2" s="89" t="n">
         <v>100</v>
       </c>
-      <c r="W2" s="77" t="s">
+      <c r="W2" s="85" t="s">
         <v>656</v>
       </c>
-      <c r="X2" s="82"/>
+      <c r="X2" s="90"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="86" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="76" t="s">
+    <row r="3" s="94" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="84" t="s">
         <v>657</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="85" t="s">
         <v>532</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="86" t="s">
         <v>565</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="77" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="85" t="s">
         <v>584</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="85" t="s">
         <v>547</v>
       </c>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77" t="n">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="T3" s="77" t="s">
+      <c r="T3" s="85" t="s">
         <v>571</v>
       </c>
       <c r="U3" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="V3" s="85" t="n">
+      <c r="V3" s="93" t="n">
         <v>100</v>
       </c>
-      <c r="W3" s="77" t="s">
+      <c r="W3" s="85" t="s">
         <v>656</v>
       </c>
-      <c r="X3" s="82"/>
+      <c r="X3" s="90"/>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="84" t="s">
         <v>658</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="85" t="s">
         <v>532</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="86" t="s">
         <v>565</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85" t="s">
         <v>659</v>
       </c>
-      <c r="S4" s="77" t="n">
+      <c r="S4" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="T4" s="77" t="s">
+      <c r="T4" s="85" t="s">
         <v>571</v>
       </c>
       <c r="U4" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="V4" s="85" t="n">
+      <c r="V4" s="93" t="n">
         <v>100</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="85" t="s">
         <v>656</v>
       </c>
-      <c r="X4" s="82"/>
+      <c r="X4" s="90"/>
       <c r="Y4" s="0"/>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
@@ -17312,49 +17344,49 @@
       <c r="AMI4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="84" t="s">
         <v>660</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="85" t="s">
         <v>532</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="86" t="s">
         <v>583</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="77" t="s">
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="85" t="s">
         <v>540</v>
       </c>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77" t="s">
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85" t="s">
         <v>547</v>
       </c>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77" t="n">
+      <c r="R5" s="85"/>
+      <c r="S5" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="T5" s="77" t="s">
+      <c r="T5" s="85" t="s">
         <v>571</v>
       </c>
       <c r="U5" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="V5" s="81" t="n">
+      <c r="V5" s="89" t="n">
         <v>100</v>
       </c>
-      <c r="W5" s="77" t="s">
+      <c r="W5" s="85" t="s">
         <v>656</v>
       </c>
       <c r="X5" s="0"/>
@@ -18359,49 +18391,49 @@
       <c r="AMI5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="84" t="s">
         <v>661</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="85" t="s">
         <v>532</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="86" t="s">
         <v>583</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="77" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="85" t="s">
         <v>662</v>
       </c>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77" t="s">
+      <c r="O6" s="85"/>
+      <c r="P6" s="85" t="s">
         <v>547</v>
       </c>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77" t="n">
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="T6" s="77" t="s">
+      <c r="T6" s="85" t="s">
         <v>571</v>
       </c>
       <c r="U6" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="V6" s="85" t="n">
+      <c r="V6" s="93" t="n">
         <v>100</v>
       </c>
-      <c r="W6" s="77" t="s">
+      <c r="W6" s="85" t="s">
         <v>656</v>
       </c>
       <c r="X6" s="0"/>
@@ -19406,47 +19438,47 @@
       <c r="AMI6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="84" t="s">
         <v>663</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="85" t="s">
         <v>532</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="86" t="s">
         <v>583</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85" t="s">
         <v>659</v>
       </c>
-      <c r="S7" s="77" t="n">
+      <c r="S7" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="T7" s="77" t="s">
+      <c r="T7" s="85" t="s">
         <v>571</v>
       </c>
       <c r="U7" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="V7" s="85" t="n">
+      <c r="V7" s="93" t="n">
         <v>100</v>
       </c>
-      <c r="W7" s="77" t="s">
+      <c r="W7" s="85" t="s">
         <v>656</v>
       </c>
       <c r="X7" s="0"/>
@@ -20450,244 +20482,244 @@
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
     </row>
-    <row r="8" s="83" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="78" t="s">
+    <row r="8" s="91" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="84" t="s">
         <v>664</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="85" t="s">
         <v>532</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="77" t="s">
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="85" t="s">
         <v>540</v>
       </c>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77" t="s">
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85" t="s">
         <v>547</v>
       </c>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77" t="n">
+      <c r="R8" s="85"/>
+      <c r="S8" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="T8" s="77" t="s">
+      <c r="T8" s="85" t="s">
         <v>571</v>
       </c>
       <c r="U8" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="V8" s="81" t="n">
+      <c r="V8" s="89" t="n">
         <v>100</v>
       </c>
-      <c r="W8" s="77" t="s">
+      <c r="W8" s="85" t="s">
         <v>656</v>
       </c>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="86" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="78" t="s">
+    <row r="9" s="94" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="84" t="s">
         <v>665</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="85" t="s">
         <v>532</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="77" t="s">
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="85" t="s">
         <v>584</v>
       </c>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77" t="s">
+      <c r="O9" s="85"/>
+      <c r="P9" s="85" t="s">
         <v>547</v>
       </c>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77" t="n">
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="T9" s="77" t="s">
+      <c r="T9" s="85" t="s">
         <v>571</v>
       </c>
       <c r="U9" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="V9" s="85" t="n">
+      <c r="V9" s="93" t="n">
         <v>100</v>
       </c>
-      <c r="W9" s="77" t="s">
+      <c r="W9" s="85" t="s">
         <v>656</v>
       </c>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="86" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="78" t="s">
+    <row r="10" s="94" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="84" t="s">
         <v>666</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="85" t="s">
         <v>532</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77" t="s">
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85" t="s">
         <v>659</v>
       </c>
-      <c r="S10" s="77" t="n">
+      <c r="S10" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="T10" s="77" t="s">
+      <c r="T10" s="85" t="s">
         <v>571</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="V10" s="85" t="n">
+      <c r="V10" s="93" t="n">
         <v>100</v>
       </c>
-      <c r="W10" s="77" t="s">
+      <c r="W10" s="85" t="s">
         <v>656</v>
       </c>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="90" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="87" t="s">
+    <row r="11" s="98" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="86" t="s">
         <v>667</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="85" t="s">
         <v>520</v>
       </c>
       <c r="D11" s="35"/>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="96" t="s">
         <v>668</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="77" t="s">
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="85" t="s">
         <v>527</v>
       </c>
-      <c r="O11" s="77"/>
-      <c r="P11" s="78" t="s">
+      <c r="O11" s="85"/>
+      <c r="P11" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="78" t="s">
+      <c r="Q11" s="88"/>
+      <c r="R11" s="86" t="s">
         <v>541</v>
       </c>
-      <c r="S11" s="78" t="n">
+      <c r="S11" s="86" t="n">
         <v>50</v>
       </c>
-      <c r="T11" s="78" t="s">
+      <c r="T11" s="86" t="s">
         <v>523</v>
       </c>
-      <c r="U11" s="78" t="s">
+      <c r="U11" s="86" t="s">
         <v>618</v>
       </c>
-      <c r="V11" s="85" t="n">
+      <c r="V11" s="93" t="n">
         <v>50</v>
       </c>
-      <c r="W11" s="80"/>
+      <c r="W11" s="88"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" s="91" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="87" t="s">
+    <row r="12" s="99" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="86" t="s">
         <v>669</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="85" t="s">
         <v>520</v>
       </c>
       <c r="D12" s="35"/>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="96" t="s">
         <v>668</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="46" t="s">
+      <c r="F12" s="88"/>
+      <c r="G12" s="54" t="s">
         <v>626</v>
       </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="77" t="s">
+      <c r="H12" s="97"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="85" t="s">
         <v>553</v>
       </c>
-      <c r="O12" s="77"/>
-      <c r="P12" s="78" t="s">
+      <c r="O12" s="85"/>
+      <c r="P12" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="78" t="s">
+      <c r="Q12" s="88"/>
+      <c r="R12" s="86" t="s">
         <v>541</v>
       </c>
-      <c r="S12" s="78" t="n">
+      <c r="S12" s="86" t="n">
         <v>50</v>
       </c>
-      <c r="T12" s="78" t="s">
+      <c r="T12" s="86" t="s">
         <v>523</v>
       </c>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>618</v>
       </c>
-      <c r="V12" s="85" t="n">
+      <c r="V12" s="93" t="n">
         <v>50</v>
       </c>
-      <c r="W12" s="77"/>
+      <c r="W12" s="85"/>
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="31" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20705,7 +20737,7 @@
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="46"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="39"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
@@ -20735,7 +20767,7 @@
       <c r="V13" s="32" t="n">
         <v>-1000</v>
       </c>
-      <c r="W13" s="92"/>
+      <c r="W13" s="100"/>
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="29" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20791,10 +20823,10 @@
       <c r="V14" s="32" t="n">
         <v>100</v>
       </c>
-      <c r="W14" s="92"/>
+      <c r="W14" s="100"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" s="44" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="52" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
         <v>295</v>
       </c>
@@ -20807,11 +20839,11 @@
       <c r="D15" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="E15" s="93"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="32" t="s">
         <v>522</v>
       </c>
-      <c r="G15" s="49"/>
+      <c r="G15" s="57"/>
       <c r="H15" s="39"/>
       <c r="I15" s="25"/>
       <c r="J15" s="24"/>
@@ -20861,7 +20893,7 @@
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="46"/>
+      <c r="G16" s="54"/>
       <c r="H16" s="39"/>
       <c r="I16" s="25" t="s">
         <v>523</v>
@@ -20901,10 +20933,10 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="28" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="55" t="s">
         <v>487</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="54" t="s">
         <v>679</v>
       </c>
       <c r="C17" s="23" t="s">
@@ -20915,7 +20947,7 @@
         <v>633</v>
       </c>
       <c r="F17" s="25"/>
-      <c r="G17" s="46"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="39"/>
       <c r="I17" s="25" t="s">
         <v>621</v>
@@ -20951,56 +20983,56 @@
       <c r="V17" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="W17" s="46" t="s">
+      <c r="W17" s="54" t="s">
         <v>680</v>
       </c>
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="55" t="s">
         <v>487</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="54" t="s">
         <v>681</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="49" t="s">
+      <c r="D18" s="54"/>
+      <c r="E18" s="57" t="s">
         <v>633</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="42" t="s">
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="50" t="s">
         <v>588</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="54" t="s">
         <v>621</v>
       </c>
       <c r="J18" s="35" t="n">
         <v>600</v>
       </c>
-      <c r="K18" s="46" t="s">
+      <c r="K18" s="54" t="s">
         <v>550</v>
       </c>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46" t="s">
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54" t="s">
         <v>527</v>
       </c>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46" t="s">
+      <c r="O18" s="54"/>
+      <c r="P18" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="Q18" s="46"/>
+      <c r="Q18" s="54"/>
       <c r="R18" s="35" t="s">
         <v>541</v>
       </c>
       <c r="S18" s="35" t="n">
         <v>15</v>
       </c>
-      <c r="T18" s="46" t="s">
+      <c r="T18" s="54" t="s">
         <v>523</v>
       </c>
       <c r="U18" s="35" t="s">
@@ -22012,10 +22044,10 @@
       <c r="AMI18" s="0"/>
     </row>
     <row r="19" s="30" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="55" t="s">
         <v>487</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="54" t="s">
         <v>682</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -22026,7 +22058,7 @@
         <v>633</v>
       </c>
       <c r="F19" s="25"/>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="54" t="s">
         <v>626</v>
       </c>
       <c r="H19" s="39"/>
@@ -22068,10 +22100,10 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" s="29" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="54" t="s">
         <v>684</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -22082,7 +22114,7 @@
         <v>633</v>
       </c>
       <c r="F20" s="25"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="54"/>
       <c r="H20" s="39"/>
       <c r="I20" s="25" t="s">
         <v>621</v>
@@ -22118,46 +22150,46 @@
       <c r="V20" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="W20" s="46" t="s">
+      <c r="W20" s="54" t="s">
         <v>685</v>
       </c>
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="54" t="s">
         <v>686</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>520</v>
       </c>
       <c r="D21" s="25"/>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="57" t="s">
         <v>633</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="42" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="50" t="s">
         <v>588</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="54" t="s">
         <v>621</v>
       </c>
       <c r="J21" s="35" t="n">
         <v>600</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="54" t="s">
         <v>550</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="46" t="s">
+      <c r="N21" s="54" t="s">
         <v>527</v>
       </c>
       <c r="O21" s="25"/>
-      <c r="P21" s="46" t="s">
+      <c r="P21" s="54" t="s">
         <v>547</v>
       </c>
       <c r="Q21" s="25"/>
@@ -22167,7 +22199,7 @@
       <c r="S21" s="35" t="n">
         <v>20</v>
       </c>
-      <c r="T21" s="46" t="s">
+      <c r="T21" s="54" t="s">
         <v>523</v>
       </c>
       <c r="U21" s="35" t="s">
@@ -23179,10 +23211,10 @@
       <c r="AMI21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="54" t="s">
         <v>687</v>
       </c>
       <c r="C22" s="23" t="s">
@@ -23193,7 +23225,7 @@
         <v>633</v>
       </c>
       <c r="F22" s="25"/>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="54" t="s">
         <v>626</v>
       </c>
       <c r="H22" s="39"/>
@@ -24234,10 +24266,10 @@
       <c r="AMI22" s="0"/>
     </row>
     <row r="23" s="30" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="54" t="s">
         <v>688</v>
       </c>
       <c r="C23" s="23" t="s">
@@ -24248,7 +24280,7 @@
         <v>689</v>
       </c>
       <c r="F23" s="25"/>
-      <c r="G23" s="46"/>
+      <c r="G23" s="54"/>
       <c r="H23" s="39"/>
       <c r="I23" s="25" t="s">
         <v>621</v>
@@ -24284,46 +24316,46 @@
       <c r="V23" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="W23" s="46" t="s">
+      <c r="W23" s="54" t="s">
         <v>680</v>
       </c>
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="54" t="s">
         <v>690</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>520</v>
       </c>
       <c r="D24" s="25"/>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="57" t="s">
         <v>689</v>
       </c>
       <c r="F24" s="25"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="42" t="s">
+      <c r="G24" s="54"/>
+      <c r="H24" s="50" t="s">
         <v>588</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="54" t="s">
         <v>621</v>
       </c>
       <c r="J24" s="35" t="n">
         <v>600</v>
       </c>
-      <c r="K24" s="46" t="s">
+      <c r="K24" s="54" t="s">
         <v>550</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
-      <c r="N24" s="46" t="s">
+      <c r="N24" s="54" t="s">
         <v>527</v>
       </c>
       <c r="O24" s="25"/>
-      <c r="P24" s="46" t="s">
+      <c r="P24" s="54" t="s">
         <v>547</v>
       </c>
       <c r="Q24" s="25"/>
@@ -24333,7 +24365,7 @@
       <c r="S24" s="35" t="n">
         <v>15</v>
       </c>
-      <c r="T24" s="46" t="s">
+      <c r="T24" s="54" t="s">
         <v>523</v>
       </c>
       <c r="U24" s="35" t="s">
@@ -25345,10 +25377,10 @@
       <c r="AMI24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="54" t="s">
         <v>691</v>
       </c>
       <c r="C25" s="23" t="s">
@@ -25359,7 +25391,7 @@
         <v>689</v>
       </c>
       <c r="F25" s="25"/>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="54" t="s">
         <v>626</v>
       </c>
       <c r="H25" s="39"/>
@@ -26400,10 +26432,10 @@
       <c r="AMI25" s="0"/>
     </row>
     <row r="26" s="29" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="54" t="s">
         <v>692</v>
       </c>
       <c r="C26" s="23" t="s">
@@ -26414,7 +26446,7 @@
         <v>689</v>
       </c>
       <c r="F26" s="25"/>
-      <c r="G26" s="46"/>
+      <c r="G26" s="54"/>
       <c r="H26" s="39"/>
       <c r="I26" s="25" t="s">
         <v>621</v>
@@ -26450,46 +26482,46 @@
       <c r="V26" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="W26" s="46" t="s">
+      <c r="W26" s="54" t="s">
         <v>685</v>
       </c>
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="54" t="s">
         <v>693</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>520</v>
       </c>
       <c r="D27" s="25"/>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="57" t="s">
         <v>689</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="42" t="s">
+      <c r="G27" s="54"/>
+      <c r="H27" s="50" t="s">
         <v>588</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="54" t="s">
         <v>621</v>
       </c>
       <c r="J27" s="35" t="n">
         <v>600</v>
       </c>
-      <c r="K27" s="46" t="s">
+      <c r="K27" s="54" t="s">
         <v>550</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
-      <c r="N27" s="46" t="s">
+      <c r="N27" s="54" t="s">
         <v>527</v>
       </c>
       <c r="O27" s="25"/>
-      <c r="P27" s="46" t="s">
+      <c r="P27" s="54" t="s">
         <v>547</v>
       </c>
       <c r="Q27" s="25"/>
@@ -26499,7 +26531,7 @@
       <c r="S27" s="35" t="n">
         <v>20</v>
       </c>
-      <c r="T27" s="46" t="s">
+      <c r="T27" s="54" t="s">
         <v>523</v>
       </c>
       <c r="U27" s="35" t="s">
@@ -27511,10 +27543,10 @@
       <c r="AMI27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="54" t="s">
         <v>694</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -27525,7 +27557,7 @@
         <v>689</v>
       </c>
       <c r="F28" s="25"/>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="54" t="s">
         <v>626</v>
       </c>
       <c r="H28" s="39"/>
@@ -28566,21 +28598,21 @@
       <c r="AMI28" s="0"/>
     </row>
     <row r="29" s="30" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="54" t="s">
         <v>695</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>520</v>
       </c>
       <c r="D29" s="25"/>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="57" t="s">
         <v>696</v>
       </c>
       <c r="F29" s="25"/>
-      <c r="G29" s="46"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="39"/>
       <c r="I29" s="25" t="s">
         <v>621</v>
@@ -28616,46 +28648,46 @@
       <c r="V29" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="W29" s="46" t="s">
+      <c r="W29" s="54" t="s">
         <v>680</v>
       </c>
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="54" t="s">
         <v>697</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>520</v>
       </c>
       <c r="D30" s="25"/>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="57" t="s">
         <v>696</v>
       </c>
       <c r="F30" s="25"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="42" t="s">
+      <c r="G30" s="54"/>
+      <c r="H30" s="50" t="s">
         <v>588</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="54" t="s">
         <v>621</v>
       </c>
       <c r="J30" s="35" t="n">
         <v>600</v>
       </c>
-      <c r="K30" s="46" t="s">
+      <c r="K30" s="54" t="s">
         <v>550</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
-      <c r="N30" s="46" t="s">
+      <c r="N30" s="54" t="s">
         <v>527</v>
       </c>
       <c r="O30" s="25"/>
-      <c r="P30" s="46" t="s">
+      <c r="P30" s="54" t="s">
         <v>547</v>
       </c>
       <c r="Q30" s="25"/>
@@ -28665,7 +28697,7 @@
       <c r="S30" s="35" t="n">
         <v>15</v>
       </c>
-      <c r="T30" s="46" t="s">
+      <c r="T30" s="54" t="s">
         <v>523</v>
       </c>
       <c r="U30" s="35" t="s">
@@ -29677,21 +29709,21 @@
       <c r="AMI30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="54" t="s">
         <v>698</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>520</v>
       </c>
       <c r="D31" s="25"/>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="57" t="s">
         <v>696</v>
       </c>
       <c r="F31" s="25"/>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="54" t="s">
         <v>626</v>
       </c>
       <c r="H31" s="39"/>
@@ -30731,22 +30763,22 @@
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
     </row>
-    <row r="32" s="44" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="47" t="s">
+    <row r="32" s="52" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="54" t="s">
         <v>699</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>520</v>
       </c>
       <c r="D32" s="25"/>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="57" t="s">
         <v>696</v>
       </c>
       <c r="F32" s="25"/>
-      <c r="G32" s="46"/>
+      <c r="G32" s="54"/>
       <c r="H32" s="39"/>
       <c r="I32" s="25" t="s">
         <v>621</v>
@@ -30782,46 +30814,46 @@
       <c r="V32" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="W32" s="46" t="s">
+      <c r="W32" s="54" t="s">
         <v>685</v>
       </c>
       <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="54" t="s">
         <v>700</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>520</v>
       </c>
       <c r="D33" s="25"/>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="57" t="s">
         <v>696</v>
       </c>
       <c r="F33" s="25"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="42" t="s">
+      <c r="G33" s="54"/>
+      <c r="H33" s="50" t="s">
         <v>588</v>
       </c>
-      <c r="I33" s="46" t="s">
+      <c r="I33" s="54" t="s">
         <v>621</v>
       </c>
       <c r="J33" s="35" t="n">
         <v>600</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="54" t="s">
         <v>550</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="46" t="s">
+      <c r="N33" s="54" t="s">
         <v>527</v>
       </c>
       <c r="O33" s="25"/>
-      <c r="P33" s="46" t="s">
+      <c r="P33" s="54" t="s">
         <v>547</v>
       </c>
       <c r="Q33" s="25"/>
@@ -30831,7 +30863,7 @@
       <c r="S33" s="35" t="n">
         <v>20</v>
       </c>
-      <c r="T33" s="46" t="s">
+      <c r="T33" s="54" t="s">
         <v>523</v>
       </c>
       <c r="U33" s="35" t="s">
@@ -31843,21 +31875,21 @@
       <c r="AMI33" s="0"/>
     </row>
     <row r="34" s="29" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="54" t="s">
         <v>701</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>520</v>
       </c>
       <c r="D34" s="25"/>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="57" t="s">
         <v>696</v>
       </c>
       <c r="F34" s="25"/>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="54" t="s">
         <v>626</v>
       </c>
       <c r="H34" s="39"/>
@@ -31913,7 +31945,7 @@
         <v>703</v>
       </c>
       <c r="F35" s="25"/>
-      <c r="G35" s="46"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="39"/>
       <c r="I35" s="25" t="s">
         <v>523</v>
@@ -31967,7 +31999,7 @@
         <v>703</v>
       </c>
       <c r="F36" s="25"/>
-      <c r="G36" s="46"/>
+      <c r="G36" s="54"/>
       <c r="H36" s="39"/>
       <c r="I36" s="25" t="s">
         <v>523</v>
@@ -33020,7 +33052,7 @@
         <v>703</v>
       </c>
       <c r="F37" s="25"/>
-      <c r="G37" s="46"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="39"/>
       <c r="I37" s="25" t="s">
         <v>523</v>
@@ -34075,7 +34107,7 @@
         <v>703</v>
       </c>
       <c r="F38" s="25"/>
-      <c r="G38" s="46"/>
+      <c r="G38" s="54"/>
       <c r="H38" s="39"/>
       <c r="I38" s="25" t="s">
         <v>523</v>
@@ -35128,7 +35160,7 @@
         <v>629</v>
       </c>
       <c r="F39" s="25"/>
-      <c r="G39" s="46"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="39"/>
       <c r="I39" s="25" t="s">
         <v>523</v>
@@ -35184,7 +35216,7 @@
         <v>629</v>
       </c>
       <c r="F40" s="25"/>
-      <c r="G40" s="46"/>
+      <c r="G40" s="54"/>
       <c r="H40" s="39"/>
       <c r="I40" s="25" t="s">
         <v>523</v>
@@ -35238,7 +35270,7 @@
         <v>629</v>
       </c>
       <c r="F41" s="25"/>
-      <c r="G41" s="46"/>
+      <c r="G41" s="54"/>
       <c r="H41" s="39"/>
       <c r="I41" s="25" t="s">
         <v>523</v>
@@ -35294,7 +35326,7 @@
         <v>629</v>
       </c>
       <c r="F42" s="25"/>
-      <c r="G42" s="46"/>
+      <c r="G42" s="54"/>
       <c r="H42" s="39"/>
       <c r="I42" s="25" t="s">
         <v>523</v>
@@ -35348,7 +35380,7 @@
         <v>715</v>
       </c>
       <c r="F43" s="25"/>
-      <c r="G43" s="46"/>
+      <c r="G43" s="54"/>
       <c r="H43" s="39"/>
       <c r="I43" s="25" t="s">
         <v>523</v>
@@ -35404,7 +35436,7 @@
         <v>715</v>
       </c>
       <c r="F44" s="25"/>
-      <c r="G44" s="46"/>
+      <c r="G44" s="54"/>
       <c r="H44" s="39"/>
       <c r="I44" s="25" t="s">
         <v>523</v>
@@ -35458,7 +35490,7 @@
         <v>715</v>
       </c>
       <c r="F45" s="25"/>
-      <c r="G45" s="46"/>
+      <c r="G45" s="54"/>
       <c r="H45" s="39"/>
       <c r="I45" s="25" t="s">
         <v>523</v>
@@ -35514,7 +35546,7 @@
         <v>715</v>
       </c>
       <c r="F46" s="25"/>
-      <c r="G46" s="46"/>
+      <c r="G46" s="54"/>
       <c r="H46" s="39"/>
       <c r="I46" s="25" t="s">
         <v>523</v>
@@ -36553,7 +36585,7 @@
       <c r="AMI46" s="0"/>
     </row>
     <row r="47" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="55" t="s">
         <v>337</v>
       </c>
       <c r="B47" s="25" t="s">
@@ -36567,7 +36599,7 @@
         <v>720</v>
       </c>
       <c r="F47" s="25"/>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="54" t="s">
         <v>721</v>
       </c>
       <c r="H47" s="39"/>
@@ -36580,11 +36612,11 @@
       <c r="K47" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="L47" s="46" t="s">
+      <c r="L47" s="54" t="s">
         <v>722</v>
       </c>
       <c r="M47" s="25"/>
-      <c r="N47" s="46" t="s">
+      <c r="N47" s="54" t="s">
         <v>723</v>
       </c>
       <c r="O47" s="25"/>
@@ -36607,13 +36639,13 @@
       <c r="V47" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W47" s="46" t="s">
+      <c r="W47" s="54" t="s">
         <v>724</v>
       </c>
       <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="55" t="s">
         <v>337</v>
       </c>
       <c r="B48" s="25" t="s">
@@ -36627,7 +36659,7 @@
         <v>720</v>
       </c>
       <c r="F48" s="25"/>
-      <c r="G48" s="46"/>
+      <c r="G48" s="54"/>
       <c r="H48" s="39"/>
       <c r="I48" s="25" t="s">
         <v>523</v>
@@ -36642,7 +36674,7 @@
         <v>726</v>
       </c>
       <c r="M48" s="25"/>
-      <c r="N48" s="46" t="s">
+      <c r="N48" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O48" s="25"/>
@@ -36665,7 +36697,7 @@
       <c r="V48" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W48" s="46"/>
+      <c r="W48" s="54"/>
       <c r="X48" s="0"/>
       <c r="Y48" s="0"/>
       <c r="Z48" s="0"/>
@@ -37668,7 +37700,7 @@
       <c r="AMI48" s="0"/>
     </row>
     <row r="49" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="55" t="s">
         <v>339</v>
       </c>
       <c r="B49" s="25" t="s">
@@ -37682,7 +37714,7 @@
         <v>720</v>
       </c>
       <c r="F49" s="25"/>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="54" t="s">
         <v>721</v>
       </c>
       <c r="H49" s="39"/>
@@ -37695,11 +37727,11 @@
       <c r="K49" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="L49" s="46" t="s">
+      <c r="L49" s="54" t="s">
         <v>722</v>
       </c>
       <c r="M49" s="25"/>
-      <c r="N49" s="46" t="s">
+      <c r="N49" s="54" t="s">
         <v>723</v>
       </c>
       <c r="O49" s="25"/>
@@ -37722,13 +37754,13 @@
       <c r="V49" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W49" s="46" t="s">
+      <c r="W49" s="54" t="s">
         <v>728</v>
       </c>
       <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="55" t="s">
         <v>339</v>
       </c>
       <c r="B50" s="25" t="s">
@@ -37742,7 +37774,7 @@
         <v>720</v>
       </c>
       <c r="F50" s="25"/>
-      <c r="G50" s="46"/>
+      <c r="G50" s="54"/>
       <c r="H50" s="39"/>
       <c r="I50" s="25" t="s">
         <v>523</v>
@@ -37757,7 +37789,7 @@
         <v>726</v>
       </c>
       <c r="M50" s="25"/>
-      <c r="N50" s="46" t="s">
+      <c r="N50" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O50" s="25"/>
@@ -37780,7 +37812,7 @@
       <c r="V50" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W50" s="46"/>
+      <c r="W50" s="54"/>
       <c r="X50" s="0"/>
       <c r="Y50" s="0"/>
       <c r="Z50" s="0"/>
@@ -38783,7 +38815,7 @@
       <c r="AMI50" s="0"/>
     </row>
     <row r="51" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="55" t="s">
         <v>341</v>
       </c>
       <c r="B51" s="25" t="s">
@@ -38793,11 +38825,11 @@
         <v>520</v>
       </c>
       <c r="D51" s="25"/>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="54" t="s">
         <v>731</v>
       </c>
       <c r="F51" s="25"/>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="54" t="s">
         <v>721</v>
       </c>
       <c r="H51" s="39"/>
@@ -38810,11 +38842,11 @@
       <c r="K51" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="L51" s="46" t="s">
+      <c r="L51" s="54" t="s">
         <v>722</v>
       </c>
       <c r="M51" s="25"/>
-      <c r="N51" s="46" t="s">
+      <c r="N51" s="54" t="s">
         <v>723</v>
       </c>
       <c r="O51" s="25"/>
@@ -38837,13 +38869,13 @@
       <c r="V51" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W51" s="46" t="s">
+      <c r="W51" s="54" t="s">
         <v>724</v>
       </c>
       <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="55" t="s">
         <v>341</v>
       </c>
       <c r="B52" s="25" t="s">
@@ -38853,11 +38885,11 @@
         <v>520</v>
       </c>
       <c r="D52" s="25"/>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="54" t="s">
         <v>731</v>
       </c>
       <c r="F52" s="25"/>
-      <c r="G52" s="46"/>
+      <c r="G52" s="54"/>
       <c r="H52" s="39"/>
       <c r="I52" s="25" t="s">
         <v>523</v>
@@ -38872,7 +38904,7 @@
         <v>726</v>
       </c>
       <c r="M52" s="25"/>
-      <c r="N52" s="46" t="s">
+      <c r="N52" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O52" s="25"/>
@@ -38895,7 +38927,7 @@
       <c r="V52" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W52" s="46"/>
+      <c r="W52" s="54"/>
       <c r="X52" s="0"/>
       <c r="Y52" s="0"/>
       <c r="Z52" s="0"/>
@@ -39898,7 +39930,7 @@
       <c r="AMI52" s="0"/>
     </row>
     <row r="53" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="55" t="s">
         <v>343</v>
       </c>
       <c r="B53" s="25" t="s">
@@ -39908,11 +39940,11 @@
         <v>520</v>
       </c>
       <c r="D53" s="25"/>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="54" t="s">
         <v>731</v>
       </c>
       <c r="F53" s="25"/>
-      <c r="G53" s="46" t="s">
+      <c r="G53" s="54" t="s">
         <v>721</v>
       </c>
       <c r="H53" s="39"/>
@@ -39925,11 +39957,11 @@
       <c r="K53" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="L53" s="46" t="s">
+      <c r="L53" s="54" t="s">
         <v>722</v>
       </c>
       <c r="M53" s="25"/>
-      <c r="N53" s="46" t="s">
+      <c r="N53" s="54" t="s">
         <v>723</v>
       </c>
       <c r="O53" s="25"/>
@@ -39952,13 +39984,13 @@
       <c r="V53" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W53" s="46" t="s">
+      <c r="W53" s="54" t="s">
         <v>728</v>
       </c>
       <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="55" t="s">
         <v>343</v>
       </c>
       <c r="B54" s="25" t="s">
@@ -39968,11 +40000,11 @@
         <v>520</v>
       </c>
       <c r="D54" s="25"/>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="54" t="s">
         <v>731</v>
       </c>
       <c r="F54" s="25"/>
-      <c r="G54" s="46"/>
+      <c r="G54" s="54"/>
       <c r="H54" s="39"/>
       <c r="I54" s="25" t="s">
         <v>523</v>
@@ -39987,7 +40019,7 @@
         <v>726</v>
       </c>
       <c r="M54" s="25"/>
-      <c r="N54" s="46" t="s">
+      <c r="N54" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O54" s="25"/>
@@ -40010,7 +40042,7 @@
       <c r="V54" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W54" s="46"/>
+      <c r="W54" s="54"/>
       <c r="X54" s="0"/>
       <c r="Y54" s="0"/>
       <c r="Z54" s="0"/>
@@ -41012,8 +41044,8 @@
       <c r="AMH54" s="0"/>
       <c r="AMI54" s="0"/>
     </row>
-    <row r="55" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="47" t="s">
+    <row r="55" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="55" t="s">
         <v>345</v>
       </c>
       <c r="B55" s="25" t="s">
@@ -41027,7 +41059,7 @@
         <v>736</v>
       </c>
       <c r="F55" s="25"/>
-      <c r="G55" s="46" t="s">
+      <c r="G55" s="54" t="s">
         <v>721</v>
       </c>
       <c r="H55" s="39"/>
@@ -41040,11 +41072,11 @@
       <c r="K55" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="L55" s="46" t="s">
+      <c r="L55" s="54" t="s">
         <v>722</v>
       </c>
       <c r="M55" s="25"/>
-      <c r="N55" s="46" t="s">
+      <c r="N55" s="54" t="s">
         <v>723</v>
       </c>
       <c r="O55" s="25"/>
@@ -41067,13 +41099,13 @@
       <c r="V55" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W55" s="46" t="s">
+      <c r="W55" s="54" t="s">
         <v>724</v>
       </c>
       <c r="AMJ55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="55" t="s">
         <v>345</v>
       </c>
       <c r="B56" s="25" t="s">
@@ -41087,7 +41119,7 @@
         <v>736</v>
       </c>
       <c r="F56" s="25"/>
-      <c r="G56" s="46"/>
+      <c r="G56" s="54"/>
       <c r="H56" s="39"/>
       <c r="I56" s="25" t="s">
         <v>523</v>
@@ -41102,7 +41134,7 @@
         <v>726</v>
       </c>
       <c r="M56" s="25"/>
-      <c r="N56" s="46" t="s">
+      <c r="N56" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O56" s="25"/>
@@ -41125,7 +41157,7 @@
       <c r="V56" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W56" s="46"/>
+      <c r="W56" s="54"/>
       <c r="X56" s="0"/>
       <c r="Y56" s="0"/>
       <c r="Z56" s="0"/>
@@ -42128,7 +42160,7 @@
       <c r="AMI56" s="0"/>
     </row>
     <row r="57" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="55" t="s">
         <v>347</v>
       </c>
       <c r="B57" s="25" t="s">
@@ -42142,7 +42174,7 @@
         <v>736</v>
       </c>
       <c r="F57" s="25"/>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="54" t="s">
         <v>721</v>
       </c>
       <c r="H57" s="39"/>
@@ -42155,11 +42187,11 @@
       <c r="K57" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="L57" s="46" t="s">
+      <c r="L57" s="54" t="s">
         <v>722</v>
       </c>
       <c r="M57" s="25"/>
-      <c r="N57" s="46" t="s">
+      <c r="N57" s="54" t="s">
         <v>723</v>
       </c>
       <c r="O57" s="25"/>
@@ -42182,13 +42214,13 @@
       <c r="V57" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W57" s="46" t="s">
+      <c r="W57" s="54" t="s">
         <v>728</v>
       </c>
       <c r="AMJ57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="55" t="s">
         <v>347</v>
       </c>
       <c r="B58" s="25" t="s">
@@ -42202,7 +42234,7 @@
         <v>736</v>
       </c>
       <c r="F58" s="25"/>
-      <c r="G58" s="46"/>
+      <c r="G58" s="54"/>
       <c r="H58" s="39"/>
       <c r="I58" s="25" t="s">
         <v>523</v>
@@ -42217,7 +42249,7 @@
         <v>726</v>
       </c>
       <c r="M58" s="25"/>
-      <c r="N58" s="46" t="s">
+      <c r="N58" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O58" s="25"/>
@@ -42240,7 +42272,7 @@
       <c r="V58" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W58" s="46"/>
+      <c r="W58" s="54"/>
       <c r="X58" s="0"/>
       <c r="Y58" s="0"/>
       <c r="Z58" s="0"/>
@@ -43242,8 +43274,8 @@
       <c r="AMH58" s="0"/>
       <c r="AMI58" s="0"/>
     </row>
-    <row r="59" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="47" t="s">
+    <row r="59" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="55" t="s">
         <v>349</v>
       </c>
       <c r="B59" s="25" t="s">
@@ -43257,7 +43289,7 @@
         <v>741</v>
       </c>
       <c r="F59" s="25"/>
-      <c r="G59" s="46"/>
+      <c r="G59" s="54"/>
       <c r="H59" s="39"/>
       <c r="I59" s="25" t="s">
         <v>621</v>
@@ -43268,11 +43300,11 @@
       <c r="K59" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="L59" s="46" t="s">
+      <c r="L59" s="54" t="s">
         <v>742</v>
       </c>
       <c r="M59" s="25"/>
-      <c r="N59" s="46" t="s">
+      <c r="N59" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O59" s="25"/>
@@ -43295,13 +43327,13 @@
       <c r="V59" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W59" s="46" t="s">
+      <c r="W59" s="54" t="s">
         <v>743</v>
       </c>
       <c r="AMJ59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="55" t="s">
         <v>349</v>
       </c>
       <c r="B60" s="25" t="s">
@@ -43330,7 +43362,7 @@
         <v>726</v>
       </c>
       <c r="M60" s="25"/>
-      <c r="N60" s="46" t="s">
+      <c r="N60" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O60" s="25"/>
@@ -43353,7 +43385,7 @@
       <c r="V60" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W60" s="46"/>
+      <c r="W60" s="54"/>
       <c r="X60" s="0"/>
       <c r="Y60" s="0"/>
       <c r="Z60" s="0"/>
@@ -44356,7 +44388,7 @@
       <c r="AMI60" s="0"/>
     </row>
     <row r="61" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="55" t="s">
         <v>351</v>
       </c>
       <c r="B61" s="25" t="s">
@@ -44381,11 +44413,11 @@
       <c r="K61" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="L61" s="46" t="s">
+      <c r="L61" s="54" t="s">
         <v>742</v>
       </c>
       <c r="M61" s="25"/>
-      <c r="N61" s="46" t="s">
+      <c r="N61" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O61" s="25"/>
@@ -44408,13 +44440,13 @@
       <c r="V61" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W61" s="46" t="s">
+      <c r="W61" s="54" t="s">
         <v>746</v>
       </c>
       <c r="AMJ61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="55" t="s">
         <v>351</v>
       </c>
       <c r="B62" s="25" t="s">
@@ -44443,7 +44475,7 @@
         <v>726</v>
       </c>
       <c r="M62" s="25"/>
-      <c r="N62" s="46" t="s">
+      <c r="N62" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O62" s="25"/>
@@ -44466,7 +44498,7 @@
       <c r="V62" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W62" s="46"/>
+      <c r="W62" s="54"/>
       <c r="X62" s="0"/>
       <c r="Y62" s="0"/>
       <c r="Z62" s="0"/>
@@ -45468,8 +45500,8 @@
       <c r="AMH62" s="0"/>
       <c r="AMI62" s="0"/>
     </row>
-    <row r="63" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="47" t="s">
+    <row r="63" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="55" t="s">
         <v>353</v>
       </c>
       <c r="B63" s="25" t="s">
@@ -45494,11 +45526,11 @@
       <c r="K63" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="L63" s="46" t="s">
+      <c r="L63" s="54" t="s">
         <v>742</v>
       </c>
       <c r="M63" s="25"/>
-      <c r="N63" s="46" t="s">
+      <c r="N63" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O63" s="25"/>
@@ -45521,13 +45553,13 @@
       <c r="V63" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W63" s="46" t="s">
+      <c r="W63" s="54" t="s">
         <v>743</v>
       </c>
       <c r="AMJ63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="55" t="s">
         <v>353</v>
       </c>
       <c r="B64" s="25" t="s">
@@ -45556,7 +45588,7 @@
         <v>726</v>
       </c>
       <c r="M64" s="25"/>
-      <c r="N64" s="46" t="s">
+      <c r="N64" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O64" s="25"/>
@@ -45579,7 +45611,7 @@
       <c r="V64" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W64" s="46"/>
+      <c r="W64" s="54"/>
       <c r="X64" s="0"/>
       <c r="Y64" s="0"/>
       <c r="Z64" s="0"/>
@@ -46582,7 +46614,7 @@
       <c r="AMI64" s="0"/>
     </row>
     <row r="65" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="55" t="s">
         <v>355</v>
       </c>
       <c r="B65" s="25" t="s">
@@ -46607,11 +46639,11 @@
       <c r="K65" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="L65" s="46" t="s">
+      <c r="L65" s="54" t="s">
         <v>742</v>
       </c>
       <c r="M65" s="25"/>
-      <c r="N65" s="46" t="s">
+      <c r="N65" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O65" s="25"/>
@@ -46634,13 +46666,13 @@
       <c r="V65" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W65" s="46" t="s">
+      <c r="W65" s="54" t="s">
         <v>746</v>
       </c>
       <c r="AMJ65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="55" t="s">
         <v>355</v>
       </c>
       <c r="B66" s="25" t="s">
@@ -46669,7 +46701,7 @@
         <v>726</v>
       </c>
       <c r="M66" s="25"/>
-      <c r="N66" s="46" t="s">
+      <c r="N66" s="54" t="s">
         <v>625</v>
       </c>
       <c r="O66" s="25"/>
@@ -47694,18 +47726,18 @@
       <c r="AMH66" s="0"/>
       <c r="AMI66" s="0"/>
     </row>
-    <row r="67" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="25" t="s">
         <v>357</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>753</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="54" t="s">
         <v>520</v>
       </c>
       <c r="D67" s="25"/>
-      <c r="E67" s="46" t="s">
+      <c r="E67" s="54" t="s">
         <v>754</v>
       </c>
       <c r="F67" s="25"/>
@@ -47730,7 +47762,7 @@
       <c r="S67" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="T67" s="46" t="s">
+      <c r="T67" s="54" t="s">
         <v>523</v>
       </c>
       <c r="U67" s="25" t="s">
@@ -47739,7 +47771,7 @@
       <c r="V67" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="W67" s="46" t="s">
+      <c r="W67" s="54" t="s">
         <v>755</v>
       </c>
       <c r="AMJ67" s="0"/>
@@ -47751,15 +47783,15 @@
       <c r="B68" s="25" t="s">
         <v>756</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="54" t="s">
         <v>520</v>
       </c>
       <c r="D68" s="25"/>
-      <c r="E68" s="46" t="s">
+      <c r="E68" s="54" t="s">
         <v>754</v>
       </c>
       <c r="F68" s="25"/>
-      <c r="G68" s="46" t="s">
+      <c r="G68" s="54" t="s">
         <v>626</v>
       </c>
       <c r="H68" s="39"/>
@@ -47782,7 +47814,7 @@
       <c r="S68" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="T68" s="46" t="s">
+      <c r="T68" s="54" t="s">
         <v>523</v>
       </c>
       <c r="U68" s="25" t="s">
@@ -48793,8 +48825,8 @@
       <c r="AMH68" s="0"/>
       <c r="AMI68" s="0"/>
     </row>
-    <row r="69" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="47" t="s">
+    <row r="69" s="62" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="55" t="s">
         <v>409</v>
       </c>
       <c r="B69" s="25" t="s">
@@ -48803,39 +48835,39 @@
       <c r="C69" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="46" t="s">
+      <c r="D69" s="60"/>
+      <c r="E69" s="54" t="s">
         <v>758</v>
       </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="46" t="s">
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="102"/>
+      <c r="I69" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="J69" s="46" t="n">
+      <c r="J69" s="54" t="n">
         <v>600</v>
       </c>
-      <c r="K69" s="46" t="s">
+      <c r="K69" s="54" t="s">
         <v>550</v>
       </c>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="46" t="s">
+      <c r="L69" s="60"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="54" t="s">
         <v>527</v>
       </c>
-      <c r="O69" s="52"/>
-      <c r="P69" s="46" t="s">
+      <c r="O69" s="60"/>
+      <c r="P69" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="Q69" s="52"/>
+      <c r="Q69" s="60"/>
       <c r="R69" s="35" t="s">
         <v>541</v>
       </c>
       <c r="S69" s="35" t="n">
         <v>20</v>
       </c>
-      <c r="T69" s="46" t="s">
+      <c r="T69" s="54" t="s">
         <v>523</v>
       </c>
       <c r="U69" s="35" t="s">
@@ -48844,13 +48876,13 @@
       <c r="V69" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="W69" s="46" t="s">
+      <c r="W69" s="54" t="s">
         <v>759</v>
       </c>
       <c r="AMJ69" s="0"/>
     </row>
-    <row r="70" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="47" t="s">
+    <row r="70" s="62" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="55" t="s">
         <v>409</v>
       </c>
       <c r="B70" s="25" t="s">
@@ -48859,39 +48891,39 @@
       <c r="C70" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="46" t="s">
+      <c r="D70" s="60"/>
+      <c r="E70" s="54" t="s">
         <v>758</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="46" t="s">
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="102"/>
+      <c r="I70" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="J70" s="46" t="n">
+      <c r="J70" s="54" t="n">
         <v>600</v>
       </c>
-      <c r="K70" s="46" t="s">
+      <c r="K70" s="54" t="s">
         <v>550</v>
       </c>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="46" t="s">
+      <c r="L70" s="60"/>
+      <c r="M70" s="60"/>
+      <c r="N70" s="54" t="s">
         <v>625</v>
       </c>
-      <c r="O70" s="52"/>
-      <c r="P70" s="46" t="s">
+      <c r="O70" s="60"/>
+      <c r="P70" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="Q70" s="52"/>
+      <c r="Q70" s="60"/>
       <c r="R70" s="35" t="s">
         <v>541</v>
       </c>
       <c r="S70" s="35" t="n">
         <v>20</v>
       </c>
-      <c r="T70" s="46" t="s">
+      <c r="T70" s="54" t="s">
         <v>523</v>
       </c>
       <c r="U70" s="35" t="s">
@@ -48900,7 +48932,7 @@
       <c r="V70" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="W70" s="46"/>
+      <c r="W70" s="54"/>
       <c r="AMJ70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48916,16 +48948,16 @@
       <c r="D71" s="35" t="s">
         <v>762</v>
       </c>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="42" t="s">
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="50" t="s">
         <v>588</v>
       </c>
-      <c r="I71" s="46" t="s">
+      <c r="I71" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="J71" s="95" t="n">
+      <c r="J71" s="103" t="n">
         <v>600</v>
       </c>
       <c r="K71" s="35" t="s">
@@ -48937,10 +48969,10 @@
         <v>553</v>
       </c>
       <c r="O71" s="35"/>
-      <c r="P71" s="46" t="s">
+      <c r="P71" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="Q71" s="46"/>
+      <c r="Q71" s="54"/>
       <c r="R71" s="35" t="s">
         <v>541</v>
       </c>
@@ -48973,16 +49005,16 @@
       <c r="D72" s="35" t="s">
         <v>762</v>
       </c>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="42" t="s">
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="50" t="s">
         <v>588</v>
       </c>
-      <c r="I72" s="46" t="s">
+      <c r="I72" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="J72" s="95" t="n">
+      <c r="J72" s="103" t="n">
         <v>600</v>
       </c>
       <c r="K72" s="35" t="s">
@@ -48994,10 +49026,10 @@
         <v>527</v>
       </c>
       <c r="O72" s="35"/>
-      <c r="P72" s="46" t="s">
+      <c r="P72" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="Q72" s="46"/>
+      <c r="Q72" s="54"/>
       <c r="R72" s="35" t="s">
         <v>541</v>
       </c>
@@ -49018,38 +49050,38 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="67" t="s">
+      <c r="A73" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="54" t="s">
         <v>765</v>
       </c>
       <c r="C73" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="D73" s="68"/>
-      <c r="E73" s="46" t="s">
+      <c r="D73" s="76"/>
+      <c r="E73" s="54" t="s">
         <v>766</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
-      <c r="I73" s="46" t="s">
+      <c r="I73" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="J73" s="46" t="n">
+      <c r="J73" s="54" t="n">
         <v>600</v>
       </c>
-      <c r="K73" s="46" t="s">
+      <c r="K73" s="54" t="s">
         <v>550</v>
       </c>
       <c r="L73" s="25"/>
       <c r="M73" s="25"/>
-      <c r="N73" s="46" t="s">
+      <c r="N73" s="54" t="s">
         <v>527</v>
       </c>
       <c r="O73" s="25"/>
-      <c r="P73" s="46" t="s">
+      <c r="P73" s="54" t="s">
         <v>547</v>
       </c>
       <c r="Q73" s="25"/>
@@ -49059,54 +49091,54 @@
       <c r="S73" s="35" t="n">
         <v>30</v>
       </c>
-      <c r="T73" s="46" t="s">
+      <c r="T73" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="U73" s="46" t="s">
+      <c r="U73" s="54" t="s">
         <v>618</v>
       </c>
       <c r="V73" s="35" t="n">
         <v>100</v>
       </c>
-      <c r="W73" s="46" t="s">
+      <c r="W73" s="54" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="67" t="s">
+      <c r="A74" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="54" t="s">
         <v>768</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="D74" s="68"/>
-      <c r="E74" s="46" t="s">
+      <c r="D74" s="76"/>
+      <c r="E74" s="54" t="s">
         <v>766</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
-      <c r="H74" s="42" t="s">
+      <c r="H74" s="50" t="s">
         <v>588</v>
       </c>
-      <c r="I74" s="46" t="s">
+      <c r="I74" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="J74" s="46" t="n">
+      <c r="J74" s="54" t="n">
         <v>600</v>
       </c>
-      <c r="K74" s="46" t="s">
+      <c r="K74" s="54" t="s">
         <v>550</v>
       </c>
       <c r="L74" s="25"/>
       <c r="M74" s="25"/>
-      <c r="N74" s="46" t="s">
+      <c r="N74" s="54" t="s">
         <v>527</v>
       </c>
       <c r="O74" s="25"/>
-      <c r="P74" s="46" t="s">
+      <c r="P74" s="54" t="s">
         <v>547</v>
       </c>
       <c r="Q74" s="25"/>
@@ -49116,50 +49148,50 @@
       <c r="S74" s="35" t="n">
         <v>30</v>
       </c>
-      <c r="T74" s="46" t="s">
+      <c r="T74" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="U74" s="46" t="s">
+      <c r="U74" s="54" t="s">
         <v>618</v>
       </c>
       <c r="V74" s="35" t="n">
         <v>100</v>
       </c>
-      <c r="W74" s="46"/>
+      <c r="W74" s="54"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="54" t="s">
         <v>769</v>
       </c>
       <c r="C75" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="D75" s="68"/>
-      <c r="E75" s="46" t="s">
+      <c r="D75" s="76"/>
+      <c r="E75" s="54" t="s">
         <v>633</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
-      <c r="I75" s="46" t="s">
+      <c r="I75" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="J75" s="46" t="n">
+      <c r="J75" s="54" t="n">
         <v>600</v>
       </c>
-      <c r="K75" s="46" t="s">
+      <c r="K75" s="54" t="s">
         <v>550</v>
       </c>
       <c r="L75" s="25"/>
       <c r="M75" s="25"/>
-      <c r="N75" s="46" t="s">
+      <c r="N75" s="54" t="s">
         <v>527</v>
       </c>
       <c r="O75" s="25"/>
-      <c r="P75" s="46" t="s">
+      <c r="P75" s="54" t="s">
         <v>547</v>
       </c>
       <c r="Q75" s="25"/>
@@ -49169,54 +49201,54 @@
       <c r="S75" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="T75" s="46" t="s">
+      <c r="T75" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="U75" s="46" t="s">
+      <c r="U75" s="54" t="s">
         <v>618</v>
       </c>
       <c r="V75" s="35" t="n">
         <v>100</v>
       </c>
-      <c r="W75" s="46" t="s">
+      <c r="W75" s="54" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="67" t="s">
+      <c r="A76" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="54" t="s">
         <v>771</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="D76" s="68"/>
-      <c r="E76" s="46" t="s">
+      <c r="D76" s="76"/>
+      <c r="E76" s="54" t="s">
         <v>633</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
-      <c r="H76" s="42" t="s">
+      <c r="H76" s="50" t="s">
         <v>588</v>
       </c>
-      <c r="I76" s="46" t="s">
+      <c r="I76" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="J76" s="46" t="n">
+      <c r="J76" s="54" t="n">
         <v>600</v>
       </c>
-      <c r="K76" s="46" t="s">
+      <c r="K76" s="54" t="s">
         <v>550</v>
       </c>
       <c r="L76" s="25"/>
       <c r="M76" s="25"/>
-      <c r="N76" s="46" t="s">
+      <c r="N76" s="54" t="s">
         <v>527</v>
       </c>
       <c r="O76" s="25"/>
-      <c r="P76" s="46" t="s">
+      <c r="P76" s="54" t="s">
         <v>547</v>
       </c>
       <c r="Q76" s="25"/>
@@ -49226,132 +49258,132 @@
       <c r="S76" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="T76" s="46" t="s">
+      <c r="T76" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="U76" s="46" t="s">
+      <c r="U76" s="54" t="s">
         <v>618</v>
       </c>
       <c r="V76" s="35" t="n">
         <v>100</v>
       </c>
-      <c r="W76" s="46"/>
+      <c r="W76" s="54"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="67" t="s">
+      <c r="A77" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="54" t="s">
         <v>772</v>
       </c>
       <c r="C77" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="D77" s="68"/>
-      <c r="E77" s="49" t="s">
+      <c r="D77" s="76"/>
+      <c r="E77" s="57" t="s">
         <v>689</v>
       </c>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
       <c r="H77" s="25"/>
-      <c r="I77" s="46" t="s">
+      <c r="I77" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="J77" s="46" t="n">
+      <c r="J77" s="54" t="n">
         <v>600</v>
       </c>
-      <c r="K77" s="46" t="s">
+      <c r="K77" s="54" t="s">
         <v>550</v>
       </c>
-      <c r="L77" s="68"/>
-      <c r="M77" s="68"/>
-      <c r="N77" s="46" t="s">
+      <c r="L77" s="76"/>
+      <c r="M77" s="76"/>
+      <c r="N77" s="54" t="s">
         <v>527</v>
       </c>
-      <c r="O77" s="68"/>
-      <c r="P77" s="46" t="s">
+      <c r="O77" s="76"/>
+      <c r="P77" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="Q77" s="68"/>
+      <c r="Q77" s="76"/>
       <c r="R77" s="35" t="s">
         <v>541</v>
       </c>
       <c r="S77" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="T77" s="46" t="s">
+      <c r="T77" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="U77" s="46" t="s">
+      <c r="U77" s="54" t="s">
         <v>618</v>
       </c>
       <c r="V77" s="35" t="n">
         <v>100</v>
       </c>
-      <c r="W77" s="46" t="s">
+      <c r="W77" s="54" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="67" t="s">
+      <c r="A78" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="54" t="s">
         <v>773</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="D78" s="68"/>
-      <c r="E78" s="49" t="s">
+      <c r="D78" s="76"/>
+      <c r="E78" s="57" t="s">
         <v>689</v>
       </c>
-      <c r="F78" s="68"/>
-      <c r="G78" s="68"/>
-      <c r="H78" s="42" t="s">
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="50" t="s">
         <v>588</v>
       </c>
-      <c r="I78" s="46" t="s">
+      <c r="I78" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="J78" s="46" t="n">
+      <c r="J78" s="54" t="n">
         <v>600</v>
       </c>
-      <c r="K78" s="46" t="s">
+      <c r="K78" s="54" t="s">
         <v>550</v>
       </c>
-      <c r="L78" s="68"/>
-      <c r="M78" s="68"/>
-      <c r="N78" s="46" t="s">
+      <c r="L78" s="76"/>
+      <c r="M78" s="76"/>
+      <c r="N78" s="54" t="s">
         <v>527</v>
       </c>
-      <c r="O78" s="68"/>
-      <c r="P78" s="46" t="s">
+      <c r="O78" s="76"/>
+      <c r="P78" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="Q78" s="68"/>
+      <c r="Q78" s="76"/>
       <c r="R78" s="35" t="s">
         <v>541</v>
       </c>
       <c r="S78" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="T78" s="46" t="s">
+      <c r="T78" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="U78" s="46" t="s">
+      <c r="U78" s="54" t="s">
         <v>618</v>
       </c>
       <c r="V78" s="35" t="n">
         <v>100</v>
       </c>
-      <c r="W78" s="68"/>
+      <c r="W78" s="76"/>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="46" t="s">
+      <c r="A79" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="54" t="s">
         <v>774</v>
       </c>
       <c r="C79" s="37" t="s">
@@ -49360,49 +49392,49 @@
       <c r="D79" s="35" t="s">
         <v>775</v>
       </c>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="46" t="s">
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="54" t="s">
         <v>626</v>
       </c>
-      <c r="H79" s="79"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="68"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="68"/>
-      <c r="M79" s="68"/>
-      <c r="N79" s="46" t="s">
+      <c r="H79" s="87"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="76"/>
+      <c r="K79" s="76"/>
+      <c r="L79" s="76"/>
+      <c r="M79" s="76"/>
+      <c r="N79" s="54" t="s">
         <v>531</v>
       </c>
-      <c r="O79" s="68"/>
-      <c r="P79" s="46" t="s">
+      <c r="O79" s="76"/>
+      <c r="P79" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="Q79" s="68"/>
+      <c r="Q79" s="76"/>
       <c r="R79" s="35" t="s">
         <v>541</v>
       </c>
       <c r="S79" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="T79" s="46" t="s">
+      <c r="T79" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="U79" s="46" t="s">
+      <c r="U79" s="54" t="s">
         <v>618</v>
       </c>
       <c r="V79" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="W79" s="46" t="s">
+      <c r="W79" s="54" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="54" t="s">
         <v>777</v>
       </c>
       <c r="C80" s="37" t="s">
@@ -49411,39 +49443,39 @@
       <c r="D80" s="35" t="s">
         <v>775</v>
       </c>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="79"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="68"/>
-      <c r="L80" s="68"/>
-      <c r="M80" s="68"/>
-      <c r="N80" s="46" t="s">
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="87"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="76"/>
+      <c r="K80" s="76"/>
+      <c r="L80" s="76"/>
+      <c r="M80" s="76"/>
+      <c r="N80" s="54" t="s">
         <v>527</v>
       </c>
-      <c r="O80" s="68"/>
-      <c r="P80" s="46" t="s">
+      <c r="O80" s="76"/>
+      <c r="P80" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="Q80" s="68"/>
+      <c r="Q80" s="76"/>
       <c r="R80" s="35" t="s">
         <v>541</v>
       </c>
       <c r="S80" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="T80" s="46" t="s">
+      <c r="T80" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="U80" s="46" t="s">
+      <c r="U80" s="54" t="s">
         <v>618</v>
       </c>
       <c r="V80" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="W80" s="68"/>
+      <c r="W80" s="76"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Y72"/>
@@ -49465,32 +49497,32 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+      <selection pane="bottomLeft" activeCell="A69" activeCellId="1" sqref="30:30 A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="143.647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="96" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="96" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="104" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="104" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="95.6558704453441"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="106" t="s">
         <v>778</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="106" t="s">
         <v>779</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="107" t="s">
         <v>518</v>
       </c>
     </row>
@@ -51143,7 +51175,7 @@
       <c r="A118" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="B118" s="100" t="n">
+      <c r="B118" s="108" t="n">
         <v>680</v>
       </c>
       <c r="C118" s="13" t="s">
@@ -51157,7 +51189,7 @@
       <c r="A119" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="B119" s="100" t="n">
+      <c r="B119" s="108" t="n">
         <v>681</v>
       </c>
       <c r="C119" s="13" t="s">
